--- a/test/mokp/instances/2kp100.xlsx
+++ b/test/mokp/instances/2kp100.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37609ee190385eca/Documentos/JosaFerreira/myJobs/02-projects/Jumento.jl/test/mokp/instances/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\whbles\pyaugmecon\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F9E92A8B-BCC4-4008-83B1-6CA024B23B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C838A715-32A3-43A8-8E7D-69080B11803B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E92A8B-BCC4-4008-83B1-6CA024B23B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DF6384DB-DFB1-4F3E-A725-F1DA5E529D8E}"/>
+    <workbookView xWindow="3765" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{DF6384DB-DFB1-4F3E-A725-F1DA5E529D8E}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
     <sheet name="b" sheetId="2" r:id="rId2"/>
     <sheet name="c" sheetId="3" r:id="rId3"/>
     <sheet name="payoff_table" sheetId="5" r:id="rId4"/>
-    <sheet name="pareto_sols" sheetId="4" r:id="rId5"/>
+    <sheet name="e_points" sheetId="6" r:id="rId5"/>
+    <sheet name="pareto_sols" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,6 +35,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -80,7 +85,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,7 +101,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DC46A5-267B-4B7C-90B0-800E9C85533E}">
   <dimension ref="A1:CW3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2327,17 +2332,4974 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B980400-298C-4B39-911D-DEEE2CE3B997}">
+  <dimension ref="A1:AER2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="QL1" workbookViewId="0">
+      <selection activeCell="RF21" sqref="RF21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:824" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+      <c r="CU1">
+        <v>98</v>
+      </c>
+      <c r="CV1">
+        <v>99</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
+      <c r="CX1">
+        <v>101</v>
+      </c>
+      <c r="CY1">
+        <v>102</v>
+      </c>
+      <c r="CZ1">
+        <v>103</v>
+      </c>
+      <c r="DA1">
+        <v>104</v>
+      </c>
+      <c r="DB1">
+        <v>105</v>
+      </c>
+      <c r="DC1">
+        <v>106</v>
+      </c>
+      <c r="DD1">
+        <v>107</v>
+      </c>
+      <c r="DE1">
+        <v>108</v>
+      </c>
+      <c r="DF1">
+        <v>109</v>
+      </c>
+      <c r="DG1">
+        <v>110</v>
+      </c>
+      <c r="DH1">
+        <v>111</v>
+      </c>
+      <c r="DI1">
+        <v>112</v>
+      </c>
+      <c r="DJ1">
+        <v>113</v>
+      </c>
+      <c r="DK1">
+        <v>114</v>
+      </c>
+      <c r="DL1">
+        <v>115</v>
+      </c>
+      <c r="DM1">
+        <v>116</v>
+      </c>
+      <c r="DN1">
+        <v>117</v>
+      </c>
+      <c r="DO1">
+        <v>118</v>
+      </c>
+      <c r="DP1">
+        <v>119</v>
+      </c>
+      <c r="DQ1">
+        <v>120</v>
+      </c>
+      <c r="DR1">
+        <v>121</v>
+      </c>
+      <c r="DS1">
+        <v>122</v>
+      </c>
+      <c r="DT1">
+        <v>123</v>
+      </c>
+      <c r="DU1">
+        <v>124</v>
+      </c>
+      <c r="DV1">
+        <v>125</v>
+      </c>
+      <c r="DW1">
+        <v>126</v>
+      </c>
+      <c r="DX1">
+        <v>127</v>
+      </c>
+      <c r="DY1">
+        <v>128</v>
+      </c>
+      <c r="DZ1">
+        <v>129</v>
+      </c>
+      <c r="EA1">
+        <v>130</v>
+      </c>
+      <c r="EB1">
+        <v>131</v>
+      </c>
+      <c r="EC1">
+        <v>132</v>
+      </c>
+      <c r="ED1">
+        <v>133</v>
+      </c>
+      <c r="EE1">
+        <v>134</v>
+      </c>
+      <c r="EF1">
+        <v>135</v>
+      </c>
+      <c r="EG1">
+        <v>136</v>
+      </c>
+      <c r="EH1">
+        <v>137</v>
+      </c>
+      <c r="EI1">
+        <v>138</v>
+      </c>
+      <c r="EJ1">
+        <v>139</v>
+      </c>
+      <c r="EK1">
+        <v>140</v>
+      </c>
+      <c r="EL1">
+        <v>141</v>
+      </c>
+      <c r="EM1">
+        <v>142</v>
+      </c>
+      <c r="EN1">
+        <v>143</v>
+      </c>
+      <c r="EO1">
+        <v>144</v>
+      </c>
+      <c r="EP1">
+        <v>145</v>
+      </c>
+      <c r="EQ1">
+        <v>146</v>
+      </c>
+      <c r="ER1">
+        <v>147</v>
+      </c>
+      <c r="ES1">
+        <v>148</v>
+      </c>
+      <c r="ET1">
+        <v>149</v>
+      </c>
+      <c r="EU1">
+        <v>150</v>
+      </c>
+      <c r="EV1">
+        <v>151</v>
+      </c>
+      <c r="EW1">
+        <v>152</v>
+      </c>
+      <c r="EX1">
+        <v>153</v>
+      </c>
+      <c r="EY1">
+        <v>154</v>
+      </c>
+      <c r="EZ1">
+        <v>155</v>
+      </c>
+      <c r="FA1">
+        <v>156</v>
+      </c>
+      <c r="FB1">
+        <v>157</v>
+      </c>
+      <c r="FC1">
+        <v>158</v>
+      </c>
+      <c r="FD1">
+        <v>159</v>
+      </c>
+      <c r="FE1">
+        <v>160</v>
+      </c>
+      <c r="FF1">
+        <v>161</v>
+      </c>
+      <c r="FG1">
+        <v>162</v>
+      </c>
+      <c r="FH1">
+        <v>163</v>
+      </c>
+      <c r="FI1">
+        <v>164</v>
+      </c>
+      <c r="FJ1">
+        <v>165</v>
+      </c>
+      <c r="FK1">
+        <v>166</v>
+      </c>
+      <c r="FL1">
+        <v>167</v>
+      </c>
+      <c r="FM1">
+        <v>168</v>
+      </c>
+      <c r="FN1">
+        <v>169</v>
+      </c>
+      <c r="FO1">
+        <v>170</v>
+      </c>
+      <c r="FP1">
+        <v>171</v>
+      </c>
+      <c r="FQ1">
+        <v>172</v>
+      </c>
+      <c r="FR1">
+        <v>173</v>
+      </c>
+      <c r="FS1">
+        <v>174</v>
+      </c>
+      <c r="FT1">
+        <v>175</v>
+      </c>
+      <c r="FU1">
+        <v>176</v>
+      </c>
+      <c r="FV1">
+        <v>177</v>
+      </c>
+      <c r="FW1">
+        <v>178</v>
+      </c>
+      <c r="FX1">
+        <v>179</v>
+      </c>
+      <c r="FY1">
+        <v>180</v>
+      </c>
+      <c r="FZ1">
+        <v>181</v>
+      </c>
+      <c r="GA1">
+        <v>182</v>
+      </c>
+      <c r="GB1">
+        <v>183</v>
+      </c>
+      <c r="GC1">
+        <v>184</v>
+      </c>
+      <c r="GD1">
+        <v>185</v>
+      </c>
+      <c r="GE1">
+        <v>186</v>
+      </c>
+      <c r="GF1">
+        <v>187</v>
+      </c>
+      <c r="GG1">
+        <v>188</v>
+      </c>
+      <c r="GH1">
+        <v>189</v>
+      </c>
+      <c r="GI1">
+        <v>190</v>
+      </c>
+      <c r="GJ1">
+        <v>191</v>
+      </c>
+      <c r="GK1">
+        <v>192</v>
+      </c>
+      <c r="GL1">
+        <v>193</v>
+      </c>
+      <c r="GM1">
+        <v>194</v>
+      </c>
+      <c r="GN1">
+        <v>195</v>
+      </c>
+      <c r="GO1">
+        <v>196</v>
+      </c>
+      <c r="GP1">
+        <v>197</v>
+      </c>
+      <c r="GQ1">
+        <v>198</v>
+      </c>
+      <c r="GR1">
+        <v>199</v>
+      </c>
+      <c r="GS1">
+        <v>200</v>
+      </c>
+      <c r="GT1">
+        <v>201</v>
+      </c>
+      <c r="GU1">
+        <v>202</v>
+      </c>
+      <c r="GV1">
+        <v>203</v>
+      </c>
+      <c r="GW1">
+        <v>204</v>
+      </c>
+      <c r="GX1">
+        <v>205</v>
+      </c>
+      <c r="GY1">
+        <v>206</v>
+      </c>
+      <c r="GZ1">
+        <v>207</v>
+      </c>
+      <c r="HA1">
+        <v>208</v>
+      </c>
+      <c r="HB1">
+        <v>209</v>
+      </c>
+      <c r="HC1">
+        <v>210</v>
+      </c>
+      <c r="HD1">
+        <v>211</v>
+      </c>
+      <c r="HE1">
+        <v>212</v>
+      </c>
+      <c r="HF1">
+        <v>213</v>
+      </c>
+      <c r="HG1">
+        <v>214</v>
+      </c>
+      <c r="HH1">
+        <v>215</v>
+      </c>
+      <c r="HI1">
+        <v>216</v>
+      </c>
+      <c r="HJ1">
+        <v>217</v>
+      </c>
+      <c r="HK1">
+        <v>218</v>
+      </c>
+      <c r="HL1">
+        <v>219</v>
+      </c>
+      <c r="HM1">
+        <v>220</v>
+      </c>
+      <c r="HN1">
+        <v>221</v>
+      </c>
+      <c r="HO1">
+        <v>222</v>
+      </c>
+      <c r="HP1">
+        <v>223</v>
+      </c>
+      <c r="HQ1">
+        <v>224</v>
+      </c>
+      <c r="HR1">
+        <v>225</v>
+      </c>
+      <c r="HS1">
+        <v>226</v>
+      </c>
+      <c r="HT1">
+        <v>227</v>
+      </c>
+      <c r="HU1">
+        <v>228</v>
+      </c>
+      <c r="HV1">
+        <v>229</v>
+      </c>
+      <c r="HW1">
+        <v>230</v>
+      </c>
+      <c r="HX1">
+        <v>231</v>
+      </c>
+      <c r="HY1">
+        <v>232</v>
+      </c>
+      <c r="HZ1">
+        <v>233</v>
+      </c>
+      <c r="IA1">
+        <v>234</v>
+      </c>
+      <c r="IB1">
+        <v>235</v>
+      </c>
+      <c r="IC1">
+        <v>236</v>
+      </c>
+      <c r="ID1">
+        <v>237</v>
+      </c>
+      <c r="IE1">
+        <v>238</v>
+      </c>
+      <c r="IF1">
+        <v>239</v>
+      </c>
+      <c r="IG1">
+        <v>240</v>
+      </c>
+      <c r="IH1">
+        <v>241</v>
+      </c>
+      <c r="II1">
+        <v>242</v>
+      </c>
+      <c r="IJ1">
+        <v>243</v>
+      </c>
+      <c r="IK1">
+        <v>244</v>
+      </c>
+      <c r="IL1">
+        <v>245</v>
+      </c>
+      <c r="IM1">
+        <v>246</v>
+      </c>
+      <c r="IN1">
+        <v>247</v>
+      </c>
+      <c r="IO1">
+        <v>248</v>
+      </c>
+      <c r="IP1">
+        <v>249</v>
+      </c>
+      <c r="IQ1">
+        <v>250</v>
+      </c>
+      <c r="IR1">
+        <v>251</v>
+      </c>
+      <c r="IS1">
+        <v>252</v>
+      </c>
+      <c r="IT1">
+        <v>253</v>
+      </c>
+      <c r="IU1">
+        <v>254</v>
+      </c>
+      <c r="IV1">
+        <v>255</v>
+      </c>
+      <c r="IW1">
+        <v>256</v>
+      </c>
+      <c r="IX1">
+        <v>257</v>
+      </c>
+      <c r="IY1">
+        <v>258</v>
+      </c>
+      <c r="IZ1">
+        <v>259</v>
+      </c>
+      <c r="JA1">
+        <v>260</v>
+      </c>
+      <c r="JB1">
+        <v>261</v>
+      </c>
+      <c r="JC1">
+        <v>262</v>
+      </c>
+      <c r="JD1">
+        <v>263</v>
+      </c>
+      <c r="JE1">
+        <v>264</v>
+      </c>
+      <c r="JF1">
+        <v>265</v>
+      </c>
+      <c r="JG1">
+        <v>266</v>
+      </c>
+      <c r="JH1">
+        <v>267</v>
+      </c>
+      <c r="JI1">
+        <v>268</v>
+      </c>
+      <c r="JJ1">
+        <v>269</v>
+      </c>
+      <c r="JK1">
+        <v>270</v>
+      </c>
+      <c r="JL1">
+        <v>271</v>
+      </c>
+      <c r="JM1">
+        <v>272</v>
+      </c>
+      <c r="JN1">
+        <v>273</v>
+      </c>
+      <c r="JO1">
+        <v>274</v>
+      </c>
+      <c r="JP1">
+        <v>275</v>
+      </c>
+      <c r="JQ1">
+        <v>276</v>
+      </c>
+      <c r="JR1">
+        <v>277</v>
+      </c>
+      <c r="JS1">
+        <v>278</v>
+      </c>
+      <c r="JT1">
+        <v>279</v>
+      </c>
+      <c r="JU1">
+        <v>280</v>
+      </c>
+      <c r="JV1">
+        <v>281</v>
+      </c>
+      <c r="JW1">
+        <v>282</v>
+      </c>
+      <c r="JX1">
+        <v>283</v>
+      </c>
+      <c r="JY1">
+        <v>284</v>
+      </c>
+      <c r="JZ1">
+        <v>285</v>
+      </c>
+      <c r="KA1">
+        <v>286</v>
+      </c>
+      <c r="KB1">
+        <v>287</v>
+      </c>
+      <c r="KC1">
+        <v>288</v>
+      </c>
+      <c r="KD1">
+        <v>289</v>
+      </c>
+      <c r="KE1">
+        <v>290</v>
+      </c>
+      <c r="KF1">
+        <v>291</v>
+      </c>
+      <c r="KG1">
+        <v>292</v>
+      </c>
+      <c r="KH1">
+        <v>293</v>
+      </c>
+      <c r="KI1">
+        <v>294</v>
+      </c>
+      <c r="KJ1">
+        <v>295</v>
+      </c>
+      <c r="KK1">
+        <v>296</v>
+      </c>
+      <c r="KL1">
+        <v>297</v>
+      </c>
+      <c r="KM1">
+        <v>298</v>
+      </c>
+      <c r="KN1">
+        <v>299</v>
+      </c>
+      <c r="KO1">
+        <v>300</v>
+      </c>
+      <c r="KP1">
+        <v>301</v>
+      </c>
+      <c r="KQ1">
+        <v>302</v>
+      </c>
+      <c r="KR1">
+        <v>303</v>
+      </c>
+      <c r="KS1">
+        <v>304</v>
+      </c>
+      <c r="KT1">
+        <v>305</v>
+      </c>
+      <c r="KU1">
+        <v>306</v>
+      </c>
+      <c r="KV1">
+        <v>307</v>
+      </c>
+      <c r="KW1">
+        <v>308</v>
+      </c>
+      <c r="KX1">
+        <v>309</v>
+      </c>
+      <c r="KY1">
+        <v>310</v>
+      </c>
+      <c r="KZ1">
+        <v>311</v>
+      </c>
+      <c r="LA1">
+        <v>312</v>
+      </c>
+      <c r="LB1">
+        <v>313</v>
+      </c>
+      <c r="LC1">
+        <v>314</v>
+      </c>
+      <c r="LD1">
+        <v>315</v>
+      </c>
+      <c r="LE1">
+        <v>316</v>
+      </c>
+      <c r="LF1">
+        <v>317</v>
+      </c>
+      <c r="LG1">
+        <v>318</v>
+      </c>
+      <c r="LH1">
+        <v>319</v>
+      </c>
+      <c r="LI1">
+        <v>320</v>
+      </c>
+      <c r="LJ1">
+        <v>321</v>
+      </c>
+      <c r="LK1">
+        <v>322</v>
+      </c>
+      <c r="LL1">
+        <v>323</v>
+      </c>
+      <c r="LM1">
+        <v>324</v>
+      </c>
+      <c r="LN1">
+        <v>325</v>
+      </c>
+      <c r="LO1">
+        <v>326</v>
+      </c>
+      <c r="LP1">
+        <v>327</v>
+      </c>
+      <c r="LQ1">
+        <v>328</v>
+      </c>
+      <c r="LR1">
+        <v>329</v>
+      </c>
+      <c r="LS1">
+        <v>330</v>
+      </c>
+      <c r="LT1">
+        <v>331</v>
+      </c>
+      <c r="LU1">
+        <v>332</v>
+      </c>
+      <c r="LV1">
+        <v>333</v>
+      </c>
+      <c r="LW1">
+        <v>334</v>
+      </c>
+      <c r="LX1">
+        <v>335</v>
+      </c>
+      <c r="LY1">
+        <v>336</v>
+      </c>
+      <c r="LZ1">
+        <v>337</v>
+      </c>
+      <c r="MA1">
+        <v>338</v>
+      </c>
+      <c r="MB1">
+        <v>339</v>
+      </c>
+      <c r="MC1">
+        <v>340</v>
+      </c>
+      <c r="MD1">
+        <v>341</v>
+      </c>
+      <c r="ME1">
+        <v>342</v>
+      </c>
+      <c r="MF1">
+        <v>343</v>
+      </c>
+      <c r="MG1">
+        <v>344</v>
+      </c>
+      <c r="MH1">
+        <v>345</v>
+      </c>
+      <c r="MI1">
+        <v>346</v>
+      </c>
+      <c r="MJ1">
+        <v>347</v>
+      </c>
+      <c r="MK1">
+        <v>348</v>
+      </c>
+      <c r="ML1">
+        <v>349</v>
+      </c>
+      <c r="MM1">
+        <v>350</v>
+      </c>
+      <c r="MN1">
+        <v>351</v>
+      </c>
+      <c r="MO1">
+        <v>352</v>
+      </c>
+      <c r="MP1">
+        <v>353</v>
+      </c>
+      <c r="MQ1">
+        <v>354</v>
+      </c>
+      <c r="MR1">
+        <v>355</v>
+      </c>
+      <c r="MS1">
+        <v>356</v>
+      </c>
+      <c r="MT1">
+        <v>357</v>
+      </c>
+      <c r="MU1">
+        <v>358</v>
+      </c>
+      <c r="MV1">
+        <v>359</v>
+      </c>
+      <c r="MW1">
+        <v>360</v>
+      </c>
+      <c r="MX1">
+        <v>361</v>
+      </c>
+      <c r="MY1">
+        <v>362</v>
+      </c>
+      <c r="MZ1">
+        <v>363</v>
+      </c>
+      <c r="NA1">
+        <v>364</v>
+      </c>
+      <c r="NB1">
+        <v>365</v>
+      </c>
+      <c r="NC1">
+        <v>366</v>
+      </c>
+      <c r="ND1">
+        <v>367</v>
+      </c>
+      <c r="NE1">
+        <v>368</v>
+      </c>
+      <c r="NF1">
+        <v>369</v>
+      </c>
+      <c r="NG1">
+        <v>370</v>
+      </c>
+      <c r="NH1">
+        <v>371</v>
+      </c>
+      <c r="NI1">
+        <v>372</v>
+      </c>
+      <c r="NJ1">
+        <v>373</v>
+      </c>
+      <c r="NK1">
+        <v>374</v>
+      </c>
+      <c r="NL1">
+        <v>375</v>
+      </c>
+      <c r="NM1">
+        <v>376</v>
+      </c>
+      <c r="NN1">
+        <v>377</v>
+      </c>
+      <c r="NO1">
+        <v>378</v>
+      </c>
+      <c r="NP1">
+        <v>379</v>
+      </c>
+      <c r="NQ1">
+        <v>380</v>
+      </c>
+      <c r="NR1">
+        <v>381</v>
+      </c>
+      <c r="NS1">
+        <v>382</v>
+      </c>
+      <c r="NT1">
+        <v>383</v>
+      </c>
+      <c r="NU1">
+        <v>384</v>
+      </c>
+      <c r="NV1">
+        <v>385</v>
+      </c>
+      <c r="NW1">
+        <v>386</v>
+      </c>
+      <c r="NX1">
+        <v>387</v>
+      </c>
+      <c r="NY1">
+        <v>388</v>
+      </c>
+      <c r="NZ1">
+        <v>389</v>
+      </c>
+      <c r="OA1">
+        <v>390</v>
+      </c>
+      <c r="OB1">
+        <v>391</v>
+      </c>
+      <c r="OC1">
+        <v>392</v>
+      </c>
+      <c r="OD1">
+        <v>393</v>
+      </c>
+      <c r="OE1">
+        <v>394</v>
+      </c>
+      <c r="OF1">
+        <v>395</v>
+      </c>
+      <c r="OG1">
+        <v>396</v>
+      </c>
+      <c r="OH1">
+        <v>397</v>
+      </c>
+      <c r="OI1">
+        <v>398</v>
+      </c>
+      <c r="OJ1">
+        <v>399</v>
+      </c>
+      <c r="OK1">
+        <v>400</v>
+      </c>
+      <c r="OL1">
+        <v>401</v>
+      </c>
+      <c r="OM1">
+        <v>402</v>
+      </c>
+      <c r="ON1">
+        <v>403</v>
+      </c>
+      <c r="OO1">
+        <v>404</v>
+      </c>
+      <c r="OP1">
+        <v>405</v>
+      </c>
+      <c r="OQ1">
+        <v>406</v>
+      </c>
+      <c r="OR1">
+        <v>407</v>
+      </c>
+      <c r="OS1">
+        <v>408</v>
+      </c>
+      <c r="OT1">
+        <v>409</v>
+      </c>
+      <c r="OU1">
+        <v>410</v>
+      </c>
+      <c r="OV1">
+        <v>411</v>
+      </c>
+      <c r="OW1">
+        <v>412</v>
+      </c>
+      <c r="OX1">
+        <v>413</v>
+      </c>
+      <c r="OY1">
+        <v>414</v>
+      </c>
+      <c r="OZ1">
+        <v>415</v>
+      </c>
+      <c r="PA1">
+        <v>416</v>
+      </c>
+      <c r="PB1">
+        <v>417</v>
+      </c>
+      <c r="PC1">
+        <v>418</v>
+      </c>
+      <c r="PD1">
+        <v>419</v>
+      </c>
+      <c r="PE1">
+        <v>420</v>
+      </c>
+      <c r="PF1">
+        <v>421</v>
+      </c>
+      <c r="PG1">
+        <v>422</v>
+      </c>
+      <c r="PH1">
+        <v>423</v>
+      </c>
+      <c r="PI1">
+        <v>424</v>
+      </c>
+      <c r="PJ1">
+        <v>425</v>
+      </c>
+      <c r="PK1">
+        <v>426</v>
+      </c>
+      <c r="PL1">
+        <v>427</v>
+      </c>
+      <c r="PM1">
+        <v>428</v>
+      </c>
+      <c r="PN1">
+        <v>429</v>
+      </c>
+      <c r="PO1">
+        <v>430</v>
+      </c>
+      <c r="PP1">
+        <v>431</v>
+      </c>
+      <c r="PQ1">
+        <v>432</v>
+      </c>
+      <c r="PR1">
+        <v>433</v>
+      </c>
+      <c r="PS1">
+        <v>434</v>
+      </c>
+      <c r="PT1">
+        <v>435</v>
+      </c>
+      <c r="PU1">
+        <v>436</v>
+      </c>
+      <c r="PV1">
+        <v>437</v>
+      </c>
+      <c r="PW1">
+        <v>438</v>
+      </c>
+      <c r="PX1">
+        <v>439</v>
+      </c>
+      <c r="PY1">
+        <v>440</v>
+      </c>
+      <c r="PZ1">
+        <v>441</v>
+      </c>
+      <c r="QA1">
+        <v>442</v>
+      </c>
+      <c r="QB1">
+        <v>443</v>
+      </c>
+      <c r="QC1">
+        <v>444</v>
+      </c>
+      <c r="QD1">
+        <v>445</v>
+      </c>
+      <c r="QE1">
+        <v>446</v>
+      </c>
+      <c r="QF1">
+        <v>447</v>
+      </c>
+      <c r="QG1">
+        <v>448</v>
+      </c>
+      <c r="QH1">
+        <v>449</v>
+      </c>
+      <c r="QI1">
+        <v>450</v>
+      </c>
+      <c r="QJ1">
+        <v>451</v>
+      </c>
+      <c r="QK1">
+        <v>452</v>
+      </c>
+      <c r="QL1">
+        <v>453</v>
+      </c>
+      <c r="QM1">
+        <v>454</v>
+      </c>
+      <c r="QN1">
+        <v>455</v>
+      </c>
+      <c r="QO1">
+        <v>456</v>
+      </c>
+      <c r="QP1">
+        <v>457</v>
+      </c>
+      <c r="QQ1">
+        <v>458</v>
+      </c>
+      <c r="QR1">
+        <v>459</v>
+      </c>
+      <c r="QS1">
+        <v>460</v>
+      </c>
+      <c r="QT1">
+        <v>461</v>
+      </c>
+      <c r="QU1">
+        <v>462</v>
+      </c>
+      <c r="QV1">
+        <v>463</v>
+      </c>
+      <c r="QW1">
+        <v>464</v>
+      </c>
+      <c r="QX1">
+        <v>465</v>
+      </c>
+      <c r="QY1">
+        <v>466</v>
+      </c>
+      <c r="QZ1">
+        <v>467</v>
+      </c>
+      <c r="RA1">
+        <v>468</v>
+      </c>
+      <c r="RB1">
+        <v>469</v>
+      </c>
+      <c r="RC1">
+        <v>470</v>
+      </c>
+      <c r="RD1">
+        <v>471</v>
+      </c>
+      <c r="RE1">
+        <v>472</v>
+      </c>
+      <c r="RF1">
+        <v>473</v>
+      </c>
+      <c r="RG1">
+        <v>474</v>
+      </c>
+      <c r="RH1">
+        <v>475</v>
+      </c>
+      <c r="RI1">
+        <v>476</v>
+      </c>
+      <c r="RJ1">
+        <v>477</v>
+      </c>
+      <c r="RK1">
+        <v>478</v>
+      </c>
+      <c r="RL1">
+        <v>479</v>
+      </c>
+      <c r="RM1">
+        <v>480</v>
+      </c>
+      <c r="RN1">
+        <v>481</v>
+      </c>
+      <c r="RO1">
+        <v>482</v>
+      </c>
+      <c r="RP1">
+        <v>483</v>
+      </c>
+      <c r="RQ1">
+        <v>484</v>
+      </c>
+      <c r="RR1">
+        <v>485</v>
+      </c>
+      <c r="RS1">
+        <v>486</v>
+      </c>
+      <c r="RT1">
+        <v>487</v>
+      </c>
+      <c r="RU1">
+        <v>488</v>
+      </c>
+      <c r="RV1">
+        <v>489</v>
+      </c>
+      <c r="RW1">
+        <v>490</v>
+      </c>
+      <c r="RX1">
+        <v>491</v>
+      </c>
+      <c r="RY1">
+        <v>492</v>
+      </c>
+      <c r="RZ1">
+        <v>493</v>
+      </c>
+      <c r="SA1">
+        <v>494</v>
+      </c>
+      <c r="SB1">
+        <v>495</v>
+      </c>
+      <c r="SC1">
+        <v>496</v>
+      </c>
+      <c r="SD1">
+        <v>497</v>
+      </c>
+      <c r="SE1">
+        <v>498</v>
+      </c>
+      <c r="SF1">
+        <v>499</v>
+      </c>
+      <c r="SG1">
+        <v>500</v>
+      </c>
+      <c r="SH1">
+        <v>501</v>
+      </c>
+      <c r="SI1">
+        <v>502</v>
+      </c>
+      <c r="SJ1">
+        <v>503</v>
+      </c>
+      <c r="SK1">
+        <v>504</v>
+      </c>
+      <c r="SL1">
+        <v>505</v>
+      </c>
+      <c r="SM1">
+        <v>506</v>
+      </c>
+      <c r="SN1">
+        <v>507</v>
+      </c>
+      <c r="SO1">
+        <v>508</v>
+      </c>
+      <c r="SP1">
+        <v>509</v>
+      </c>
+      <c r="SQ1">
+        <v>510</v>
+      </c>
+      <c r="SR1">
+        <v>511</v>
+      </c>
+      <c r="SS1">
+        <v>512</v>
+      </c>
+      <c r="ST1">
+        <v>513</v>
+      </c>
+      <c r="SU1">
+        <v>514</v>
+      </c>
+      <c r="SV1">
+        <v>515</v>
+      </c>
+      <c r="SW1">
+        <v>516</v>
+      </c>
+      <c r="SX1">
+        <v>517</v>
+      </c>
+      <c r="SY1">
+        <v>518</v>
+      </c>
+      <c r="SZ1">
+        <v>519</v>
+      </c>
+      <c r="TA1">
+        <v>520</v>
+      </c>
+      <c r="TB1">
+        <v>521</v>
+      </c>
+      <c r="TC1">
+        <v>522</v>
+      </c>
+      <c r="TD1">
+        <v>523</v>
+      </c>
+      <c r="TE1">
+        <v>524</v>
+      </c>
+      <c r="TF1">
+        <v>525</v>
+      </c>
+      <c r="TG1">
+        <v>526</v>
+      </c>
+      <c r="TH1">
+        <v>527</v>
+      </c>
+      <c r="TI1">
+        <v>528</v>
+      </c>
+      <c r="TJ1">
+        <v>529</v>
+      </c>
+      <c r="TK1">
+        <v>530</v>
+      </c>
+      <c r="TL1">
+        <v>531</v>
+      </c>
+      <c r="TM1">
+        <v>532</v>
+      </c>
+      <c r="TN1">
+        <v>533</v>
+      </c>
+      <c r="TO1">
+        <v>534</v>
+      </c>
+      <c r="TP1">
+        <v>535</v>
+      </c>
+      <c r="TQ1">
+        <v>536</v>
+      </c>
+      <c r="TR1">
+        <v>537</v>
+      </c>
+      <c r="TS1">
+        <v>538</v>
+      </c>
+      <c r="TT1">
+        <v>539</v>
+      </c>
+      <c r="TU1">
+        <v>540</v>
+      </c>
+      <c r="TV1">
+        <v>541</v>
+      </c>
+      <c r="TW1">
+        <v>542</v>
+      </c>
+      <c r="TX1">
+        <v>543</v>
+      </c>
+      <c r="TY1">
+        <v>544</v>
+      </c>
+      <c r="TZ1">
+        <v>545</v>
+      </c>
+      <c r="UA1">
+        <v>546</v>
+      </c>
+      <c r="UB1">
+        <v>547</v>
+      </c>
+      <c r="UC1">
+        <v>548</v>
+      </c>
+      <c r="UD1">
+        <v>549</v>
+      </c>
+      <c r="UE1">
+        <v>550</v>
+      </c>
+      <c r="UF1">
+        <v>551</v>
+      </c>
+      <c r="UG1">
+        <v>552</v>
+      </c>
+      <c r="UH1">
+        <v>553</v>
+      </c>
+      <c r="UI1">
+        <v>554</v>
+      </c>
+      <c r="UJ1">
+        <v>555</v>
+      </c>
+      <c r="UK1">
+        <v>556</v>
+      </c>
+      <c r="UL1">
+        <v>557</v>
+      </c>
+      <c r="UM1">
+        <v>558</v>
+      </c>
+      <c r="UN1">
+        <v>559</v>
+      </c>
+      <c r="UO1">
+        <v>560</v>
+      </c>
+      <c r="UP1">
+        <v>561</v>
+      </c>
+      <c r="UQ1">
+        <v>562</v>
+      </c>
+      <c r="UR1">
+        <v>563</v>
+      </c>
+      <c r="US1">
+        <v>564</v>
+      </c>
+      <c r="UT1">
+        <v>565</v>
+      </c>
+      <c r="UU1">
+        <v>566</v>
+      </c>
+      <c r="UV1">
+        <v>567</v>
+      </c>
+      <c r="UW1">
+        <v>568</v>
+      </c>
+      <c r="UX1">
+        <v>569</v>
+      </c>
+      <c r="UY1">
+        <v>570</v>
+      </c>
+      <c r="UZ1">
+        <v>571</v>
+      </c>
+      <c r="VA1">
+        <v>572</v>
+      </c>
+      <c r="VB1">
+        <v>573</v>
+      </c>
+      <c r="VC1">
+        <v>574</v>
+      </c>
+      <c r="VD1">
+        <v>575</v>
+      </c>
+      <c r="VE1">
+        <v>576</v>
+      </c>
+      <c r="VF1">
+        <v>577</v>
+      </c>
+      <c r="VG1">
+        <v>578</v>
+      </c>
+      <c r="VH1">
+        <v>579</v>
+      </c>
+      <c r="VI1">
+        <v>580</v>
+      </c>
+      <c r="VJ1">
+        <v>581</v>
+      </c>
+      <c r="VK1">
+        <v>582</v>
+      </c>
+      <c r="VL1">
+        <v>583</v>
+      </c>
+      <c r="VM1">
+        <v>584</v>
+      </c>
+      <c r="VN1">
+        <v>585</v>
+      </c>
+      <c r="VO1">
+        <v>586</v>
+      </c>
+      <c r="VP1">
+        <v>587</v>
+      </c>
+      <c r="VQ1">
+        <v>588</v>
+      </c>
+      <c r="VR1">
+        <v>589</v>
+      </c>
+      <c r="VS1">
+        <v>590</v>
+      </c>
+      <c r="VT1">
+        <v>591</v>
+      </c>
+      <c r="VU1">
+        <v>592</v>
+      </c>
+      <c r="VV1">
+        <v>593</v>
+      </c>
+      <c r="VW1">
+        <v>594</v>
+      </c>
+      <c r="VX1">
+        <v>595</v>
+      </c>
+      <c r="VY1">
+        <v>596</v>
+      </c>
+      <c r="VZ1">
+        <v>597</v>
+      </c>
+      <c r="WA1">
+        <v>598</v>
+      </c>
+      <c r="WB1">
+        <v>599</v>
+      </c>
+      <c r="WC1">
+        <v>600</v>
+      </c>
+      <c r="WD1">
+        <v>601</v>
+      </c>
+      <c r="WE1">
+        <v>602</v>
+      </c>
+      <c r="WF1">
+        <v>603</v>
+      </c>
+      <c r="WG1">
+        <v>604</v>
+      </c>
+      <c r="WH1">
+        <v>605</v>
+      </c>
+      <c r="WI1">
+        <v>606</v>
+      </c>
+      <c r="WJ1">
+        <v>607</v>
+      </c>
+      <c r="WK1">
+        <v>608</v>
+      </c>
+      <c r="WL1">
+        <v>609</v>
+      </c>
+      <c r="WM1">
+        <v>610</v>
+      </c>
+      <c r="WN1">
+        <v>611</v>
+      </c>
+      <c r="WO1">
+        <v>612</v>
+      </c>
+      <c r="WP1">
+        <v>613</v>
+      </c>
+      <c r="WQ1">
+        <v>614</v>
+      </c>
+      <c r="WR1">
+        <v>615</v>
+      </c>
+      <c r="WS1">
+        <v>616</v>
+      </c>
+      <c r="WT1">
+        <v>617</v>
+      </c>
+      <c r="WU1">
+        <v>618</v>
+      </c>
+      <c r="WV1">
+        <v>619</v>
+      </c>
+      <c r="WW1">
+        <v>620</v>
+      </c>
+      <c r="WX1">
+        <v>621</v>
+      </c>
+      <c r="WY1">
+        <v>622</v>
+      </c>
+      <c r="WZ1">
+        <v>623</v>
+      </c>
+      <c r="XA1">
+        <v>624</v>
+      </c>
+      <c r="XB1">
+        <v>625</v>
+      </c>
+      <c r="XC1">
+        <v>626</v>
+      </c>
+      <c r="XD1">
+        <v>627</v>
+      </c>
+      <c r="XE1">
+        <v>628</v>
+      </c>
+      <c r="XF1">
+        <v>629</v>
+      </c>
+      <c r="XG1">
+        <v>630</v>
+      </c>
+      <c r="XH1">
+        <v>631</v>
+      </c>
+      <c r="XI1">
+        <v>632</v>
+      </c>
+      <c r="XJ1">
+        <v>633</v>
+      </c>
+      <c r="XK1">
+        <v>634</v>
+      </c>
+      <c r="XL1">
+        <v>635</v>
+      </c>
+      <c r="XM1">
+        <v>636</v>
+      </c>
+      <c r="XN1">
+        <v>637</v>
+      </c>
+      <c r="XO1">
+        <v>638</v>
+      </c>
+      <c r="XP1">
+        <v>639</v>
+      </c>
+      <c r="XQ1">
+        <v>640</v>
+      </c>
+      <c r="XR1">
+        <v>641</v>
+      </c>
+      <c r="XS1">
+        <v>642</v>
+      </c>
+      <c r="XT1">
+        <v>643</v>
+      </c>
+      <c r="XU1">
+        <v>644</v>
+      </c>
+      <c r="XV1">
+        <v>645</v>
+      </c>
+      <c r="XW1">
+        <v>646</v>
+      </c>
+      <c r="XX1">
+        <v>647</v>
+      </c>
+      <c r="XY1">
+        <v>648</v>
+      </c>
+      <c r="XZ1">
+        <v>649</v>
+      </c>
+      <c r="YA1">
+        <v>650</v>
+      </c>
+      <c r="YB1">
+        <v>651</v>
+      </c>
+      <c r="YC1">
+        <v>652</v>
+      </c>
+      <c r="YD1">
+        <v>653</v>
+      </c>
+      <c r="YE1">
+        <v>654</v>
+      </c>
+      <c r="YF1">
+        <v>655</v>
+      </c>
+      <c r="YG1">
+        <v>656</v>
+      </c>
+      <c r="YH1">
+        <v>657</v>
+      </c>
+      <c r="YI1">
+        <v>658</v>
+      </c>
+      <c r="YJ1">
+        <v>659</v>
+      </c>
+      <c r="YK1">
+        <v>660</v>
+      </c>
+      <c r="YL1">
+        <v>661</v>
+      </c>
+      <c r="YM1">
+        <v>662</v>
+      </c>
+      <c r="YN1">
+        <v>663</v>
+      </c>
+      <c r="YO1">
+        <v>664</v>
+      </c>
+      <c r="YP1">
+        <v>665</v>
+      </c>
+      <c r="YQ1">
+        <v>666</v>
+      </c>
+      <c r="YR1">
+        <v>667</v>
+      </c>
+      <c r="YS1">
+        <v>668</v>
+      </c>
+      <c r="YT1">
+        <v>669</v>
+      </c>
+      <c r="YU1">
+        <v>670</v>
+      </c>
+      <c r="YV1">
+        <v>671</v>
+      </c>
+      <c r="YW1">
+        <v>672</v>
+      </c>
+      <c r="YX1">
+        <v>673</v>
+      </c>
+      <c r="YY1">
+        <v>674</v>
+      </c>
+      <c r="YZ1">
+        <v>675</v>
+      </c>
+      <c r="ZA1">
+        <v>676</v>
+      </c>
+      <c r="ZB1">
+        <v>677</v>
+      </c>
+      <c r="ZC1">
+        <v>678</v>
+      </c>
+      <c r="ZD1">
+        <v>679</v>
+      </c>
+      <c r="ZE1">
+        <v>680</v>
+      </c>
+      <c r="ZF1">
+        <v>681</v>
+      </c>
+      <c r="ZG1">
+        <v>682</v>
+      </c>
+      <c r="ZH1">
+        <v>683</v>
+      </c>
+      <c r="ZI1">
+        <v>684</v>
+      </c>
+      <c r="ZJ1">
+        <v>685</v>
+      </c>
+      <c r="ZK1">
+        <v>686</v>
+      </c>
+      <c r="ZL1">
+        <v>687</v>
+      </c>
+      <c r="ZM1">
+        <v>688</v>
+      </c>
+      <c r="ZN1">
+        <v>689</v>
+      </c>
+      <c r="ZO1">
+        <v>690</v>
+      </c>
+      <c r="ZP1">
+        <v>691</v>
+      </c>
+      <c r="ZQ1">
+        <v>692</v>
+      </c>
+      <c r="ZR1">
+        <v>693</v>
+      </c>
+      <c r="ZS1">
+        <v>694</v>
+      </c>
+      <c r="ZT1">
+        <v>695</v>
+      </c>
+      <c r="ZU1">
+        <v>696</v>
+      </c>
+      <c r="ZV1">
+        <v>697</v>
+      </c>
+      <c r="ZW1">
+        <v>698</v>
+      </c>
+      <c r="ZX1">
+        <v>699</v>
+      </c>
+      <c r="ZY1">
+        <v>700</v>
+      </c>
+      <c r="ZZ1">
+        <v>701</v>
+      </c>
+      <c r="AAA1">
+        <v>702</v>
+      </c>
+      <c r="AAB1">
+        <v>703</v>
+      </c>
+      <c r="AAC1">
+        <v>704</v>
+      </c>
+      <c r="AAD1">
+        <v>705</v>
+      </c>
+      <c r="AAE1">
+        <v>706</v>
+      </c>
+      <c r="AAF1">
+        <v>707</v>
+      </c>
+      <c r="AAG1">
+        <v>708</v>
+      </c>
+      <c r="AAH1">
+        <v>709</v>
+      </c>
+      <c r="AAI1">
+        <v>710</v>
+      </c>
+      <c r="AAJ1">
+        <v>711</v>
+      </c>
+      <c r="AAK1">
+        <v>712</v>
+      </c>
+      <c r="AAL1">
+        <v>713</v>
+      </c>
+      <c r="AAM1">
+        <v>714</v>
+      </c>
+      <c r="AAN1">
+        <v>715</v>
+      </c>
+      <c r="AAO1">
+        <v>716</v>
+      </c>
+      <c r="AAP1">
+        <v>717</v>
+      </c>
+      <c r="AAQ1">
+        <v>718</v>
+      </c>
+      <c r="AAR1">
+        <v>719</v>
+      </c>
+      <c r="AAS1">
+        <v>720</v>
+      </c>
+      <c r="AAT1">
+        <v>721</v>
+      </c>
+      <c r="AAU1">
+        <v>722</v>
+      </c>
+      <c r="AAV1">
+        <v>723</v>
+      </c>
+      <c r="AAW1">
+        <v>724</v>
+      </c>
+      <c r="AAX1">
+        <v>725</v>
+      </c>
+      <c r="AAY1">
+        <v>726</v>
+      </c>
+      <c r="AAZ1">
+        <v>727</v>
+      </c>
+      <c r="ABA1">
+        <v>728</v>
+      </c>
+      <c r="ABB1">
+        <v>729</v>
+      </c>
+      <c r="ABC1">
+        <v>730</v>
+      </c>
+      <c r="ABD1">
+        <v>731</v>
+      </c>
+      <c r="ABE1">
+        <v>732</v>
+      </c>
+      <c r="ABF1">
+        <v>733</v>
+      </c>
+      <c r="ABG1">
+        <v>734</v>
+      </c>
+      <c r="ABH1">
+        <v>735</v>
+      </c>
+      <c r="ABI1">
+        <v>736</v>
+      </c>
+      <c r="ABJ1">
+        <v>737</v>
+      </c>
+      <c r="ABK1">
+        <v>738</v>
+      </c>
+      <c r="ABL1">
+        <v>739</v>
+      </c>
+      <c r="ABM1">
+        <v>740</v>
+      </c>
+      <c r="ABN1">
+        <v>741</v>
+      </c>
+      <c r="ABO1">
+        <v>742</v>
+      </c>
+      <c r="ABP1">
+        <v>743</v>
+      </c>
+      <c r="ABQ1">
+        <v>744</v>
+      </c>
+      <c r="ABR1">
+        <v>745</v>
+      </c>
+      <c r="ABS1">
+        <v>746</v>
+      </c>
+      <c r="ABT1">
+        <v>747</v>
+      </c>
+      <c r="ABU1">
+        <v>748</v>
+      </c>
+      <c r="ABV1">
+        <v>749</v>
+      </c>
+      <c r="ABW1">
+        <v>750</v>
+      </c>
+      <c r="ABX1">
+        <v>751</v>
+      </c>
+      <c r="ABY1">
+        <v>752</v>
+      </c>
+      <c r="ABZ1">
+        <v>753</v>
+      </c>
+      <c r="ACA1">
+        <v>754</v>
+      </c>
+      <c r="ACB1">
+        <v>755</v>
+      </c>
+      <c r="ACC1">
+        <v>756</v>
+      </c>
+      <c r="ACD1">
+        <v>757</v>
+      </c>
+      <c r="ACE1">
+        <v>758</v>
+      </c>
+      <c r="ACF1">
+        <v>759</v>
+      </c>
+      <c r="ACG1">
+        <v>760</v>
+      </c>
+      <c r="ACH1">
+        <v>761</v>
+      </c>
+      <c r="ACI1">
+        <v>762</v>
+      </c>
+      <c r="ACJ1">
+        <v>763</v>
+      </c>
+      <c r="ACK1">
+        <v>764</v>
+      </c>
+      <c r="ACL1">
+        <v>765</v>
+      </c>
+      <c r="ACM1">
+        <v>766</v>
+      </c>
+      <c r="ACN1">
+        <v>767</v>
+      </c>
+      <c r="ACO1">
+        <v>768</v>
+      </c>
+      <c r="ACP1">
+        <v>769</v>
+      </c>
+      <c r="ACQ1">
+        <v>770</v>
+      </c>
+      <c r="ACR1">
+        <v>771</v>
+      </c>
+      <c r="ACS1">
+        <v>772</v>
+      </c>
+      <c r="ACT1">
+        <v>773</v>
+      </c>
+      <c r="ACU1">
+        <v>774</v>
+      </c>
+      <c r="ACV1">
+        <v>775</v>
+      </c>
+      <c r="ACW1">
+        <v>776</v>
+      </c>
+      <c r="ACX1">
+        <v>777</v>
+      </c>
+      <c r="ACY1">
+        <v>778</v>
+      </c>
+      <c r="ACZ1">
+        <v>779</v>
+      </c>
+      <c r="ADA1">
+        <v>780</v>
+      </c>
+      <c r="ADB1">
+        <v>781</v>
+      </c>
+      <c r="ADC1">
+        <v>782</v>
+      </c>
+      <c r="ADD1">
+        <v>783</v>
+      </c>
+      <c r="ADE1">
+        <v>784</v>
+      </c>
+      <c r="ADF1">
+        <v>785</v>
+      </c>
+      <c r="ADG1">
+        <v>786</v>
+      </c>
+      <c r="ADH1">
+        <v>787</v>
+      </c>
+      <c r="ADI1">
+        <v>788</v>
+      </c>
+      <c r="ADJ1">
+        <v>789</v>
+      </c>
+      <c r="ADK1">
+        <v>790</v>
+      </c>
+      <c r="ADL1">
+        <v>791</v>
+      </c>
+      <c r="ADM1">
+        <v>792</v>
+      </c>
+      <c r="ADN1">
+        <v>793</v>
+      </c>
+      <c r="ADO1">
+        <v>794</v>
+      </c>
+      <c r="ADP1">
+        <v>795</v>
+      </c>
+      <c r="ADQ1">
+        <v>796</v>
+      </c>
+      <c r="ADR1">
+        <v>797</v>
+      </c>
+      <c r="ADS1">
+        <v>798</v>
+      </c>
+      <c r="ADT1">
+        <v>799</v>
+      </c>
+      <c r="ADU1">
+        <v>800</v>
+      </c>
+      <c r="ADV1">
+        <v>801</v>
+      </c>
+      <c r="ADW1">
+        <v>802</v>
+      </c>
+      <c r="ADX1">
+        <v>803</v>
+      </c>
+      <c r="ADY1">
+        <v>804</v>
+      </c>
+      <c r="ADZ1">
+        <v>805</v>
+      </c>
+      <c r="AEA1">
+        <v>806</v>
+      </c>
+      <c r="AEB1">
+        <v>807</v>
+      </c>
+      <c r="AEC1">
+        <v>808</v>
+      </c>
+      <c r="AED1">
+        <v>809</v>
+      </c>
+      <c r="AEE1">
+        <v>810</v>
+      </c>
+      <c r="AEF1">
+        <v>811</v>
+      </c>
+      <c r="AEG1">
+        <v>812</v>
+      </c>
+      <c r="AEH1">
+        <v>813</v>
+      </c>
+      <c r="AEI1">
+        <v>814</v>
+      </c>
+      <c r="AEJ1">
+        <v>815</v>
+      </c>
+      <c r="AEK1">
+        <v>816</v>
+      </c>
+      <c r="AEL1">
+        <v>817</v>
+      </c>
+      <c r="AEM1">
+        <v>818</v>
+      </c>
+      <c r="AEN1">
+        <v>819</v>
+      </c>
+      <c r="AEO1">
+        <v>820</v>
+      </c>
+      <c r="AEP1">
+        <v>821</v>
+      </c>
+      <c r="AEQ1">
+        <v>822</v>
+      </c>
+      <c r="AER1">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:824" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3215</v>
+      </c>
+      <c r="C2">
+        <v>3216</v>
+      </c>
+      <c r="D2">
+        <v>3217</v>
+      </c>
+      <c r="E2">
+        <v>3218</v>
+      </c>
+      <c r="F2">
+        <v>3219</v>
+      </c>
+      <c r="G2">
+        <v>3220</v>
+      </c>
+      <c r="H2">
+        <v>3221</v>
+      </c>
+      <c r="I2">
+        <v>3222</v>
+      </c>
+      <c r="J2">
+        <v>3223</v>
+      </c>
+      <c r="K2">
+        <v>3224</v>
+      </c>
+      <c r="L2">
+        <v>3225</v>
+      </c>
+      <c r="M2">
+        <v>3226</v>
+      </c>
+      <c r="N2">
+        <v>3227</v>
+      </c>
+      <c r="O2">
+        <v>3228</v>
+      </c>
+      <c r="P2">
+        <v>3229</v>
+      </c>
+      <c r="Q2">
+        <v>3230</v>
+      </c>
+      <c r="R2">
+        <v>3231</v>
+      </c>
+      <c r="S2">
+        <v>3232</v>
+      </c>
+      <c r="T2">
+        <v>3233</v>
+      </c>
+      <c r="U2">
+        <v>3234</v>
+      </c>
+      <c r="V2">
+        <v>3235</v>
+      </c>
+      <c r="W2">
+        <v>3236</v>
+      </c>
+      <c r="X2">
+        <v>3237</v>
+      </c>
+      <c r="Y2">
+        <v>3238</v>
+      </c>
+      <c r="Z2">
+        <v>3239</v>
+      </c>
+      <c r="AA2">
+        <v>3240</v>
+      </c>
+      <c r="AB2">
+        <v>3241</v>
+      </c>
+      <c r="AC2">
+        <v>3242</v>
+      </c>
+      <c r="AD2">
+        <v>3243</v>
+      </c>
+      <c r="AE2">
+        <v>3244</v>
+      </c>
+      <c r="AF2">
+        <v>3245</v>
+      </c>
+      <c r="AG2">
+        <v>3246</v>
+      </c>
+      <c r="AH2">
+        <v>3247</v>
+      </c>
+      <c r="AI2">
+        <v>3248</v>
+      </c>
+      <c r="AJ2">
+        <v>3249</v>
+      </c>
+      <c r="AK2">
+        <v>3250</v>
+      </c>
+      <c r="AL2">
+        <v>3251</v>
+      </c>
+      <c r="AM2">
+        <v>3252</v>
+      </c>
+      <c r="AN2">
+        <v>3253</v>
+      </c>
+      <c r="AO2">
+        <v>3254</v>
+      </c>
+      <c r="AP2">
+        <v>3255</v>
+      </c>
+      <c r="AQ2">
+        <v>3256</v>
+      </c>
+      <c r="AR2">
+        <v>3257</v>
+      </c>
+      <c r="AS2">
+        <v>3258</v>
+      </c>
+      <c r="AT2">
+        <v>3259</v>
+      </c>
+      <c r="AU2">
+        <v>3260</v>
+      </c>
+      <c r="AV2">
+        <v>3261</v>
+      </c>
+      <c r="AW2">
+        <v>3262</v>
+      </c>
+      <c r="AX2">
+        <v>3263</v>
+      </c>
+      <c r="AY2">
+        <v>3264</v>
+      </c>
+      <c r="AZ2">
+        <v>3265</v>
+      </c>
+      <c r="BA2">
+        <v>3266</v>
+      </c>
+      <c r="BB2">
+        <v>3267</v>
+      </c>
+      <c r="BC2">
+        <v>3268</v>
+      </c>
+      <c r="BD2">
+        <v>3269</v>
+      </c>
+      <c r="BE2">
+        <v>3270</v>
+      </c>
+      <c r="BF2">
+        <v>3271</v>
+      </c>
+      <c r="BG2">
+        <v>3272</v>
+      </c>
+      <c r="BH2">
+        <v>3273</v>
+      </c>
+      <c r="BI2">
+        <v>3274</v>
+      </c>
+      <c r="BJ2">
+        <v>3275</v>
+      </c>
+      <c r="BK2">
+        <v>3276</v>
+      </c>
+      <c r="BL2">
+        <v>3277</v>
+      </c>
+      <c r="BM2">
+        <v>3278</v>
+      </c>
+      <c r="BN2">
+        <v>3279</v>
+      </c>
+      <c r="BO2">
+        <v>3280</v>
+      </c>
+      <c r="BP2">
+        <v>3281</v>
+      </c>
+      <c r="BQ2">
+        <v>3282</v>
+      </c>
+      <c r="BR2">
+        <v>3283</v>
+      </c>
+      <c r="BS2">
+        <v>3284</v>
+      </c>
+      <c r="BT2">
+        <v>3285</v>
+      </c>
+      <c r="BU2">
+        <v>3286</v>
+      </c>
+      <c r="BV2">
+        <v>3287</v>
+      </c>
+      <c r="BW2">
+        <v>3288</v>
+      </c>
+      <c r="BX2">
+        <v>3289</v>
+      </c>
+      <c r="BY2">
+        <v>3290</v>
+      </c>
+      <c r="BZ2">
+        <v>3291</v>
+      </c>
+      <c r="CA2">
+        <v>3292</v>
+      </c>
+      <c r="CB2">
+        <v>3293</v>
+      </c>
+      <c r="CC2">
+        <v>3294</v>
+      </c>
+      <c r="CD2">
+        <v>3295</v>
+      </c>
+      <c r="CE2">
+        <v>3296</v>
+      </c>
+      <c r="CF2">
+        <v>3297</v>
+      </c>
+      <c r="CG2">
+        <v>3298</v>
+      </c>
+      <c r="CH2">
+        <v>3299</v>
+      </c>
+      <c r="CI2">
+        <v>3300</v>
+      </c>
+      <c r="CJ2">
+        <v>3301</v>
+      </c>
+      <c r="CK2">
+        <v>3302</v>
+      </c>
+      <c r="CL2">
+        <v>3303</v>
+      </c>
+      <c r="CM2">
+        <v>3304</v>
+      </c>
+      <c r="CN2">
+        <v>3305</v>
+      </c>
+      <c r="CO2">
+        <v>3306</v>
+      </c>
+      <c r="CP2">
+        <v>3307</v>
+      </c>
+      <c r="CQ2">
+        <v>3308</v>
+      </c>
+      <c r="CR2">
+        <v>3309</v>
+      </c>
+      <c r="CS2">
+        <v>3310</v>
+      </c>
+      <c r="CT2">
+        <v>3311</v>
+      </c>
+      <c r="CU2">
+        <v>3312</v>
+      </c>
+      <c r="CV2">
+        <v>3313</v>
+      </c>
+      <c r="CW2">
+        <v>3314</v>
+      </c>
+      <c r="CX2">
+        <v>3315</v>
+      </c>
+      <c r="CY2">
+        <v>3316</v>
+      </c>
+      <c r="CZ2">
+        <v>3317</v>
+      </c>
+      <c r="DA2">
+        <v>3318</v>
+      </c>
+      <c r="DB2">
+        <v>3319</v>
+      </c>
+      <c r="DC2">
+        <v>3320</v>
+      </c>
+      <c r="DD2">
+        <v>3321</v>
+      </c>
+      <c r="DE2">
+        <v>3322</v>
+      </c>
+      <c r="DF2">
+        <v>3323</v>
+      </c>
+      <c r="DG2">
+        <v>3324</v>
+      </c>
+      <c r="DH2">
+        <v>3325</v>
+      </c>
+      <c r="DI2">
+        <v>3326</v>
+      </c>
+      <c r="DJ2">
+        <v>3327</v>
+      </c>
+      <c r="DK2">
+        <v>3328</v>
+      </c>
+      <c r="DL2">
+        <v>3329</v>
+      </c>
+      <c r="DM2">
+        <v>3330</v>
+      </c>
+      <c r="DN2">
+        <v>3331</v>
+      </c>
+      <c r="DO2">
+        <v>3332</v>
+      </c>
+      <c r="DP2">
+        <v>3333</v>
+      </c>
+      <c r="DQ2">
+        <v>3334</v>
+      </c>
+      <c r="DR2">
+        <v>3335</v>
+      </c>
+      <c r="DS2">
+        <v>3336</v>
+      </c>
+      <c r="DT2">
+        <v>3337</v>
+      </c>
+      <c r="DU2">
+        <v>3338</v>
+      </c>
+      <c r="DV2">
+        <v>3339</v>
+      </c>
+      <c r="DW2">
+        <v>3340</v>
+      </c>
+      <c r="DX2">
+        <v>3341</v>
+      </c>
+      <c r="DY2">
+        <v>3342</v>
+      </c>
+      <c r="DZ2">
+        <v>3343</v>
+      </c>
+      <c r="EA2">
+        <v>3344</v>
+      </c>
+      <c r="EB2">
+        <v>3345</v>
+      </c>
+      <c r="EC2">
+        <v>3346</v>
+      </c>
+      <c r="ED2">
+        <v>3347</v>
+      </c>
+      <c r="EE2">
+        <v>3348</v>
+      </c>
+      <c r="EF2">
+        <v>3349</v>
+      </c>
+      <c r="EG2">
+        <v>3350</v>
+      </c>
+      <c r="EH2">
+        <v>3351</v>
+      </c>
+      <c r="EI2">
+        <v>3352</v>
+      </c>
+      <c r="EJ2">
+        <v>3353</v>
+      </c>
+      <c r="EK2">
+        <v>3354</v>
+      </c>
+      <c r="EL2">
+        <v>3355</v>
+      </c>
+      <c r="EM2">
+        <v>3356</v>
+      </c>
+      <c r="EN2">
+        <v>3357</v>
+      </c>
+      <c r="EO2">
+        <v>3358</v>
+      </c>
+      <c r="EP2">
+        <v>3359</v>
+      </c>
+      <c r="EQ2">
+        <v>3360</v>
+      </c>
+      <c r="ER2">
+        <v>3361</v>
+      </c>
+      <c r="ES2">
+        <v>3362</v>
+      </c>
+      <c r="ET2">
+        <v>3363</v>
+      </c>
+      <c r="EU2">
+        <v>3364</v>
+      </c>
+      <c r="EV2">
+        <v>3365</v>
+      </c>
+      <c r="EW2">
+        <v>3366</v>
+      </c>
+      <c r="EX2">
+        <v>3367</v>
+      </c>
+      <c r="EY2">
+        <v>3368</v>
+      </c>
+      <c r="EZ2">
+        <v>3369</v>
+      </c>
+      <c r="FA2">
+        <v>3370</v>
+      </c>
+      <c r="FB2">
+        <v>3371</v>
+      </c>
+      <c r="FC2">
+        <v>3372</v>
+      </c>
+      <c r="FD2">
+        <v>3373</v>
+      </c>
+      <c r="FE2">
+        <v>3374</v>
+      </c>
+      <c r="FF2">
+        <v>3375</v>
+      </c>
+      <c r="FG2">
+        <v>3376</v>
+      </c>
+      <c r="FH2">
+        <v>3377</v>
+      </c>
+      <c r="FI2">
+        <v>3378</v>
+      </c>
+      <c r="FJ2">
+        <v>3379</v>
+      </c>
+      <c r="FK2">
+        <v>3380</v>
+      </c>
+      <c r="FL2">
+        <v>3381</v>
+      </c>
+      <c r="FM2">
+        <v>3382</v>
+      </c>
+      <c r="FN2">
+        <v>3383</v>
+      </c>
+      <c r="FO2">
+        <v>3384</v>
+      </c>
+      <c r="FP2">
+        <v>3385</v>
+      </c>
+      <c r="FQ2">
+        <v>3386</v>
+      </c>
+      <c r="FR2">
+        <v>3387</v>
+      </c>
+      <c r="FS2">
+        <v>3388</v>
+      </c>
+      <c r="FT2">
+        <v>3389</v>
+      </c>
+      <c r="FU2">
+        <v>3390</v>
+      </c>
+      <c r="FV2">
+        <v>3391</v>
+      </c>
+      <c r="FW2">
+        <v>3392</v>
+      </c>
+      <c r="FX2">
+        <v>3393</v>
+      </c>
+      <c r="FY2">
+        <v>3394</v>
+      </c>
+      <c r="FZ2">
+        <v>3395</v>
+      </c>
+      <c r="GA2">
+        <v>3396</v>
+      </c>
+      <c r="GB2">
+        <v>3397</v>
+      </c>
+      <c r="GC2">
+        <v>3398</v>
+      </c>
+      <c r="GD2">
+        <v>3399</v>
+      </c>
+      <c r="GE2">
+        <v>3400</v>
+      </c>
+      <c r="GF2">
+        <v>3401</v>
+      </c>
+      <c r="GG2">
+        <v>3402</v>
+      </c>
+      <c r="GH2">
+        <v>3403</v>
+      </c>
+      <c r="GI2">
+        <v>3404</v>
+      </c>
+      <c r="GJ2">
+        <v>3405</v>
+      </c>
+      <c r="GK2">
+        <v>3406</v>
+      </c>
+      <c r="GL2">
+        <v>3407</v>
+      </c>
+      <c r="GM2">
+        <v>3408</v>
+      </c>
+      <c r="GN2">
+        <v>3409</v>
+      </c>
+      <c r="GO2">
+        <v>3410</v>
+      </c>
+      <c r="GP2">
+        <v>3411</v>
+      </c>
+      <c r="GQ2">
+        <v>3412</v>
+      </c>
+      <c r="GR2">
+        <v>3413</v>
+      </c>
+      <c r="GS2">
+        <v>3414</v>
+      </c>
+      <c r="GT2">
+        <v>3415</v>
+      </c>
+      <c r="GU2">
+        <v>3416</v>
+      </c>
+      <c r="GV2">
+        <v>3417</v>
+      </c>
+      <c r="GW2">
+        <v>3418</v>
+      </c>
+      <c r="GX2">
+        <v>3419</v>
+      </c>
+      <c r="GY2">
+        <v>3420</v>
+      </c>
+      <c r="GZ2">
+        <v>3421</v>
+      </c>
+      <c r="HA2">
+        <v>3422</v>
+      </c>
+      <c r="HB2">
+        <v>3423</v>
+      </c>
+      <c r="HC2">
+        <v>3424</v>
+      </c>
+      <c r="HD2">
+        <v>3425</v>
+      </c>
+      <c r="HE2">
+        <v>3426</v>
+      </c>
+      <c r="HF2">
+        <v>3427</v>
+      </c>
+      <c r="HG2">
+        <v>3428</v>
+      </c>
+      <c r="HH2">
+        <v>3429</v>
+      </c>
+      <c r="HI2">
+        <v>3430</v>
+      </c>
+      <c r="HJ2">
+        <v>3431</v>
+      </c>
+      <c r="HK2">
+        <v>3432</v>
+      </c>
+      <c r="HL2">
+        <v>3433</v>
+      </c>
+      <c r="HM2">
+        <v>3434</v>
+      </c>
+      <c r="HN2">
+        <v>3435</v>
+      </c>
+      <c r="HO2">
+        <v>3436</v>
+      </c>
+      <c r="HP2">
+        <v>3437</v>
+      </c>
+      <c r="HQ2">
+        <v>3438</v>
+      </c>
+      <c r="HR2">
+        <v>3439</v>
+      </c>
+      <c r="HS2">
+        <v>3440</v>
+      </c>
+      <c r="HT2">
+        <v>3441</v>
+      </c>
+      <c r="HU2">
+        <v>3442</v>
+      </c>
+      <c r="HV2">
+        <v>3443</v>
+      </c>
+      <c r="HW2">
+        <v>3444</v>
+      </c>
+      <c r="HX2">
+        <v>3445</v>
+      </c>
+      <c r="HY2">
+        <v>3446</v>
+      </c>
+      <c r="HZ2">
+        <v>3447</v>
+      </c>
+      <c r="IA2">
+        <v>3448</v>
+      </c>
+      <c r="IB2">
+        <v>3449</v>
+      </c>
+      <c r="IC2">
+        <v>3450</v>
+      </c>
+      <c r="ID2">
+        <v>3451</v>
+      </c>
+      <c r="IE2">
+        <v>3452</v>
+      </c>
+      <c r="IF2">
+        <v>3453</v>
+      </c>
+      <c r="IG2">
+        <v>3454</v>
+      </c>
+      <c r="IH2">
+        <v>3455</v>
+      </c>
+      <c r="II2">
+        <v>3456</v>
+      </c>
+      <c r="IJ2">
+        <v>3457</v>
+      </c>
+      <c r="IK2">
+        <v>3458</v>
+      </c>
+      <c r="IL2">
+        <v>3459</v>
+      </c>
+      <c r="IM2">
+        <v>3460</v>
+      </c>
+      <c r="IN2">
+        <v>3461</v>
+      </c>
+      <c r="IO2">
+        <v>3462</v>
+      </c>
+      <c r="IP2">
+        <v>3463</v>
+      </c>
+      <c r="IQ2">
+        <v>3464</v>
+      </c>
+      <c r="IR2">
+        <v>3465</v>
+      </c>
+      <c r="IS2">
+        <v>3466</v>
+      </c>
+      <c r="IT2">
+        <v>3467</v>
+      </c>
+      <c r="IU2">
+        <v>3468</v>
+      </c>
+      <c r="IV2">
+        <v>3469</v>
+      </c>
+      <c r="IW2">
+        <v>3470</v>
+      </c>
+      <c r="IX2">
+        <v>3471</v>
+      </c>
+      <c r="IY2">
+        <v>3472</v>
+      </c>
+      <c r="IZ2">
+        <v>3473</v>
+      </c>
+      <c r="JA2">
+        <v>3474</v>
+      </c>
+      <c r="JB2">
+        <v>3475</v>
+      </c>
+      <c r="JC2">
+        <v>3476</v>
+      </c>
+      <c r="JD2">
+        <v>3477</v>
+      </c>
+      <c r="JE2">
+        <v>3478</v>
+      </c>
+      <c r="JF2">
+        <v>3479</v>
+      </c>
+      <c r="JG2">
+        <v>3480</v>
+      </c>
+      <c r="JH2">
+        <v>3481</v>
+      </c>
+      <c r="JI2">
+        <v>3482</v>
+      </c>
+      <c r="JJ2">
+        <v>3483</v>
+      </c>
+      <c r="JK2">
+        <v>3484</v>
+      </c>
+      <c r="JL2">
+        <v>3485</v>
+      </c>
+      <c r="JM2">
+        <v>3486</v>
+      </c>
+      <c r="JN2">
+        <v>3487</v>
+      </c>
+      <c r="JO2">
+        <v>3488</v>
+      </c>
+      <c r="JP2">
+        <v>3489</v>
+      </c>
+      <c r="JQ2">
+        <v>3490</v>
+      </c>
+      <c r="JR2">
+        <v>3491</v>
+      </c>
+      <c r="JS2">
+        <v>3492</v>
+      </c>
+      <c r="JT2">
+        <v>3493</v>
+      </c>
+      <c r="JU2">
+        <v>3494</v>
+      </c>
+      <c r="JV2">
+        <v>3495</v>
+      </c>
+      <c r="JW2">
+        <v>3496</v>
+      </c>
+      <c r="JX2">
+        <v>3497</v>
+      </c>
+      <c r="JY2">
+        <v>3498</v>
+      </c>
+      <c r="JZ2">
+        <v>3499</v>
+      </c>
+      <c r="KA2">
+        <v>3500</v>
+      </c>
+      <c r="KB2">
+        <v>3501</v>
+      </c>
+      <c r="KC2">
+        <v>3502</v>
+      </c>
+      <c r="KD2">
+        <v>3503</v>
+      </c>
+      <c r="KE2">
+        <v>3504</v>
+      </c>
+      <c r="KF2">
+        <v>3505</v>
+      </c>
+      <c r="KG2">
+        <v>3506</v>
+      </c>
+      <c r="KH2">
+        <v>3507</v>
+      </c>
+      <c r="KI2">
+        <v>3508</v>
+      </c>
+      <c r="KJ2">
+        <v>3509</v>
+      </c>
+      <c r="KK2">
+        <v>3510</v>
+      </c>
+      <c r="KL2">
+        <v>3511</v>
+      </c>
+      <c r="KM2">
+        <v>3512</v>
+      </c>
+      <c r="KN2">
+        <v>3513</v>
+      </c>
+      <c r="KO2">
+        <v>3514</v>
+      </c>
+      <c r="KP2">
+        <v>3515</v>
+      </c>
+      <c r="KQ2">
+        <v>3516</v>
+      </c>
+      <c r="KR2">
+        <v>3517</v>
+      </c>
+      <c r="KS2">
+        <v>3518</v>
+      </c>
+      <c r="KT2">
+        <v>3519</v>
+      </c>
+      <c r="KU2">
+        <v>3520</v>
+      </c>
+      <c r="KV2">
+        <v>3521</v>
+      </c>
+      <c r="KW2">
+        <v>3522</v>
+      </c>
+      <c r="KX2">
+        <v>3523</v>
+      </c>
+      <c r="KY2">
+        <v>3524</v>
+      </c>
+      <c r="KZ2">
+        <v>3525</v>
+      </c>
+      <c r="LA2">
+        <v>3526</v>
+      </c>
+      <c r="LB2">
+        <v>3527</v>
+      </c>
+      <c r="LC2">
+        <v>3528</v>
+      </c>
+      <c r="LD2">
+        <v>3529</v>
+      </c>
+      <c r="LE2">
+        <v>3530</v>
+      </c>
+      <c r="LF2">
+        <v>3531</v>
+      </c>
+      <c r="LG2">
+        <v>3532</v>
+      </c>
+      <c r="LH2">
+        <v>3533</v>
+      </c>
+      <c r="LI2">
+        <v>3534</v>
+      </c>
+      <c r="LJ2">
+        <v>3535</v>
+      </c>
+      <c r="LK2">
+        <v>3536</v>
+      </c>
+      <c r="LL2">
+        <v>3537</v>
+      </c>
+      <c r="LM2">
+        <v>3538</v>
+      </c>
+      <c r="LN2">
+        <v>3539</v>
+      </c>
+      <c r="LO2">
+        <v>3540</v>
+      </c>
+      <c r="LP2">
+        <v>3541</v>
+      </c>
+      <c r="LQ2">
+        <v>3542</v>
+      </c>
+      <c r="LR2">
+        <v>3543</v>
+      </c>
+      <c r="LS2">
+        <v>3544</v>
+      </c>
+      <c r="LT2">
+        <v>3545</v>
+      </c>
+      <c r="LU2">
+        <v>3546</v>
+      </c>
+      <c r="LV2">
+        <v>3547</v>
+      </c>
+      <c r="LW2">
+        <v>3548</v>
+      </c>
+      <c r="LX2">
+        <v>3549</v>
+      </c>
+      <c r="LY2">
+        <v>3550</v>
+      </c>
+      <c r="LZ2">
+        <v>3551</v>
+      </c>
+      <c r="MA2">
+        <v>3552</v>
+      </c>
+      <c r="MB2">
+        <v>3553</v>
+      </c>
+      <c r="MC2">
+        <v>3554</v>
+      </c>
+      <c r="MD2">
+        <v>3555</v>
+      </c>
+      <c r="ME2">
+        <v>3556</v>
+      </c>
+      <c r="MF2">
+        <v>3557</v>
+      </c>
+      <c r="MG2">
+        <v>3558</v>
+      </c>
+      <c r="MH2">
+        <v>3559</v>
+      </c>
+      <c r="MI2">
+        <v>3560</v>
+      </c>
+      <c r="MJ2">
+        <v>3561</v>
+      </c>
+      <c r="MK2">
+        <v>3562</v>
+      </c>
+      <c r="ML2">
+        <v>3563</v>
+      </c>
+      <c r="MM2">
+        <v>3564</v>
+      </c>
+      <c r="MN2">
+        <v>3565</v>
+      </c>
+      <c r="MO2">
+        <v>3566</v>
+      </c>
+      <c r="MP2">
+        <v>3567</v>
+      </c>
+      <c r="MQ2">
+        <v>3568</v>
+      </c>
+      <c r="MR2">
+        <v>3569</v>
+      </c>
+      <c r="MS2">
+        <v>3570</v>
+      </c>
+      <c r="MT2">
+        <v>3571</v>
+      </c>
+      <c r="MU2">
+        <v>3572</v>
+      </c>
+      <c r="MV2">
+        <v>3573</v>
+      </c>
+      <c r="MW2">
+        <v>3574</v>
+      </c>
+      <c r="MX2">
+        <v>3575</v>
+      </c>
+      <c r="MY2">
+        <v>3576</v>
+      </c>
+      <c r="MZ2">
+        <v>3577</v>
+      </c>
+      <c r="NA2">
+        <v>3578</v>
+      </c>
+      <c r="NB2">
+        <v>3579</v>
+      </c>
+      <c r="NC2">
+        <v>3580</v>
+      </c>
+      <c r="ND2">
+        <v>3581</v>
+      </c>
+      <c r="NE2">
+        <v>3582</v>
+      </c>
+      <c r="NF2">
+        <v>3583</v>
+      </c>
+      <c r="NG2">
+        <v>3584</v>
+      </c>
+      <c r="NH2">
+        <v>3585</v>
+      </c>
+      <c r="NI2">
+        <v>3586</v>
+      </c>
+      <c r="NJ2">
+        <v>3587</v>
+      </c>
+      <c r="NK2">
+        <v>3588</v>
+      </c>
+      <c r="NL2">
+        <v>3589</v>
+      </c>
+      <c r="NM2">
+        <v>3590</v>
+      </c>
+      <c r="NN2">
+        <v>3591</v>
+      </c>
+      <c r="NO2">
+        <v>3592</v>
+      </c>
+      <c r="NP2">
+        <v>3593</v>
+      </c>
+      <c r="NQ2">
+        <v>3594</v>
+      </c>
+      <c r="NR2">
+        <v>3595</v>
+      </c>
+      <c r="NS2">
+        <v>3596</v>
+      </c>
+      <c r="NT2">
+        <v>3597</v>
+      </c>
+      <c r="NU2">
+        <v>3598</v>
+      </c>
+      <c r="NV2">
+        <v>3599</v>
+      </c>
+      <c r="NW2">
+        <v>3600</v>
+      </c>
+      <c r="NX2">
+        <v>3601</v>
+      </c>
+      <c r="NY2">
+        <v>3602</v>
+      </c>
+      <c r="NZ2">
+        <v>3603</v>
+      </c>
+      <c r="OA2">
+        <v>3604</v>
+      </c>
+      <c r="OB2">
+        <v>3605</v>
+      </c>
+      <c r="OC2">
+        <v>3606</v>
+      </c>
+      <c r="OD2">
+        <v>3607</v>
+      </c>
+      <c r="OE2">
+        <v>3608</v>
+      </c>
+      <c r="OF2">
+        <v>3609</v>
+      </c>
+      <c r="OG2">
+        <v>3610</v>
+      </c>
+      <c r="OH2">
+        <v>3611</v>
+      </c>
+      <c r="OI2">
+        <v>3612</v>
+      </c>
+      <c r="OJ2">
+        <v>3613</v>
+      </c>
+      <c r="OK2">
+        <v>3614</v>
+      </c>
+      <c r="OL2">
+        <v>3615</v>
+      </c>
+      <c r="OM2">
+        <v>3616</v>
+      </c>
+      <c r="ON2">
+        <v>3617</v>
+      </c>
+      <c r="OO2">
+        <v>3618</v>
+      </c>
+      <c r="OP2">
+        <v>3619</v>
+      </c>
+      <c r="OQ2">
+        <v>3620</v>
+      </c>
+      <c r="OR2">
+        <v>3621</v>
+      </c>
+      <c r="OS2">
+        <v>3622</v>
+      </c>
+      <c r="OT2">
+        <v>3623</v>
+      </c>
+      <c r="OU2">
+        <v>3624</v>
+      </c>
+      <c r="OV2">
+        <v>3625</v>
+      </c>
+      <c r="OW2">
+        <v>3626</v>
+      </c>
+      <c r="OX2">
+        <v>3627</v>
+      </c>
+      <c r="OY2">
+        <v>3628</v>
+      </c>
+      <c r="OZ2">
+        <v>3629</v>
+      </c>
+      <c r="PA2">
+        <v>3630</v>
+      </c>
+      <c r="PB2">
+        <v>3631</v>
+      </c>
+      <c r="PC2">
+        <v>3632</v>
+      </c>
+      <c r="PD2">
+        <v>3633</v>
+      </c>
+      <c r="PE2">
+        <v>3634</v>
+      </c>
+      <c r="PF2">
+        <v>3635</v>
+      </c>
+      <c r="PG2">
+        <v>3636</v>
+      </c>
+      <c r="PH2">
+        <v>3637</v>
+      </c>
+      <c r="PI2">
+        <v>3638</v>
+      </c>
+      <c r="PJ2">
+        <v>3639</v>
+      </c>
+      <c r="PK2">
+        <v>3640</v>
+      </c>
+      <c r="PL2">
+        <v>3641</v>
+      </c>
+      <c r="PM2">
+        <v>3642</v>
+      </c>
+      <c r="PN2">
+        <v>3643</v>
+      </c>
+      <c r="PO2">
+        <v>3644</v>
+      </c>
+      <c r="PP2">
+        <v>3645</v>
+      </c>
+      <c r="PQ2">
+        <v>3646</v>
+      </c>
+      <c r="PR2">
+        <v>3647</v>
+      </c>
+      <c r="PS2">
+        <v>3648</v>
+      </c>
+      <c r="PT2">
+        <v>3649</v>
+      </c>
+      <c r="PU2">
+        <v>3650</v>
+      </c>
+      <c r="PV2">
+        <v>3651</v>
+      </c>
+      <c r="PW2">
+        <v>3652</v>
+      </c>
+      <c r="PX2">
+        <v>3653</v>
+      </c>
+      <c r="PY2">
+        <v>3654</v>
+      </c>
+      <c r="PZ2">
+        <v>3655</v>
+      </c>
+      <c r="QA2">
+        <v>3656</v>
+      </c>
+      <c r="QB2">
+        <v>3657</v>
+      </c>
+      <c r="QC2">
+        <v>3658</v>
+      </c>
+      <c r="QD2">
+        <v>3659</v>
+      </c>
+      <c r="QE2">
+        <v>3660</v>
+      </c>
+      <c r="QF2">
+        <v>3661</v>
+      </c>
+      <c r="QG2">
+        <v>3662</v>
+      </c>
+      <c r="QH2">
+        <v>3663</v>
+      </c>
+      <c r="QI2">
+        <v>3664</v>
+      </c>
+      <c r="QJ2">
+        <v>3665</v>
+      </c>
+      <c r="QK2">
+        <v>3666</v>
+      </c>
+      <c r="QL2">
+        <v>3667</v>
+      </c>
+      <c r="QM2">
+        <v>3668</v>
+      </c>
+      <c r="QN2">
+        <v>3669</v>
+      </c>
+      <c r="QO2">
+        <v>3670</v>
+      </c>
+      <c r="QP2">
+        <v>3671</v>
+      </c>
+      <c r="QQ2">
+        <v>3672</v>
+      </c>
+      <c r="QR2">
+        <v>3673</v>
+      </c>
+      <c r="QS2">
+        <v>3674</v>
+      </c>
+      <c r="QT2">
+        <v>3675</v>
+      </c>
+      <c r="QU2">
+        <v>3676</v>
+      </c>
+      <c r="QV2">
+        <v>3677</v>
+      </c>
+      <c r="QW2">
+        <v>3678</v>
+      </c>
+      <c r="QX2">
+        <v>3679</v>
+      </c>
+      <c r="QY2">
+        <v>3680</v>
+      </c>
+      <c r="QZ2">
+        <v>3681</v>
+      </c>
+      <c r="RA2">
+        <v>3682</v>
+      </c>
+      <c r="RB2">
+        <v>3683</v>
+      </c>
+      <c r="RC2">
+        <v>3684</v>
+      </c>
+      <c r="RD2">
+        <v>3685</v>
+      </c>
+      <c r="RE2">
+        <v>3686</v>
+      </c>
+      <c r="RF2">
+        <v>3687</v>
+      </c>
+      <c r="RG2">
+        <v>3688</v>
+      </c>
+      <c r="RH2">
+        <v>3689</v>
+      </c>
+      <c r="RI2">
+        <v>3690</v>
+      </c>
+      <c r="RJ2">
+        <v>3691</v>
+      </c>
+      <c r="RK2">
+        <v>3692</v>
+      </c>
+      <c r="RL2">
+        <v>3693</v>
+      </c>
+      <c r="RM2">
+        <v>3694</v>
+      </c>
+      <c r="RN2">
+        <v>3695</v>
+      </c>
+      <c r="RO2">
+        <v>3696</v>
+      </c>
+      <c r="RP2">
+        <v>3697</v>
+      </c>
+      <c r="RQ2">
+        <v>3698</v>
+      </c>
+      <c r="RR2">
+        <v>3699</v>
+      </c>
+      <c r="RS2">
+        <v>3700</v>
+      </c>
+      <c r="RT2">
+        <v>3701</v>
+      </c>
+      <c r="RU2">
+        <v>3702</v>
+      </c>
+      <c r="RV2">
+        <v>3703</v>
+      </c>
+      <c r="RW2">
+        <v>3704</v>
+      </c>
+      <c r="RX2">
+        <v>3705</v>
+      </c>
+      <c r="RY2">
+        <v>3706</v>
+      </c>
+      <c r="RZ2">
+        <v>3707</v>
+      </c>
+      <c r="SA2">
+        <v>3708</v>
+      </c>
+      <c r="SB2">
+        <v>3709</v>
+      </c>
+      <c r="SC2">
+        <v>3710</v>
+      </c>
+      <c r="SD2">
+        <v>3711</v>
+      </c>
+      <c r="SE2">
+        <v>3712</v>
+      </c>
+      <c r="SF2">
+        <v>3713</v>
+      </c>
+      <c r="SG2">
+        <v>3714</v>
+      </c>
+      <c r="SH2">
+        <v>3715</v>
+      </c>
+      <c r="SI2">
+        <v>3716</v>
+      </c>
+      <c r="SJ2">
+        <v>3717</v>
+      </c>
+      <c r="SK2">
+        <v>3718</v>
+      </c>
+      <c r="SL2">
+        <v>3719</v>
+      </c>
+      <c r="SM2">
+        <v>3720</v>
+      </c>
+      <c r="SN2">
+        <v>3721</v>
+      </c>
+      <c r="SO2">
+        <v>3722</v>
+      </c>
+      <c r="SP2">
+        <v>3723</v>
+      </c>
+      <c r="SQ2">
+        <v>3724</v>
+      </c>
+      <c r="SR2">
+        <v>3725</v>
+      </c>
+      <c r="SS2">
+        <v>3726</v>
+      </c>
+      <c r="ST2">
+        <v>3727</v>
+      </c>
+      <c r="SU2">
+        <v>3728</v>
+      </c>
+      <c r="SV2">
+        <v>3729</v>
+      </c>
+      <c r="SW2">
+        <v>3730</v>
+      </c>
+      <c r="SX2">
+        <v>3731</v>
+      </c>
+      <c r="SY2">
+        <v>3732</v>
+      </c>
+      <c r="SZ2">
+        <v>3733</v>
+      </c>
+      <c r="TA2">
+        <v>3734</v>
+      </c>
+      <c r="TB2">
+        <v>3735</v>
+      </c>
+      <c r="TC2">
+        <v>3736</v>
+      </c>
+      <c r="TD2">
+        <v>3737</v>
+      </c>
+      <c r="TE2">
+        <v>3738</v>
+      </c>
+      <c r="TF2">
+        <v>3739</v>
+      </c>
+      <c r="TG2">
+        <v>3740</v>
+      </c>
+      <c r="TH2">
+        <v>3741</v>
+      </c>
+      <c r="TI2">
+        <v>3742</v>
+      </c>
+      <c r="TJ2">
+        <v>3743</v>
+      </c>
+      <c r="TK2">
+        <v>3744</v>
+      </c>
+      <c r="TL2">
+        <v>3745</v>
+      </c>
+      <c r="TM2">
+        <v>3746</v>
+      </c>
+      <c r="TN2">
+        <v>3747</v>
+      </c>
+      <c r="TO2">
+        <v>3748</v>
+      </c>
+      <c r="TP2">
+        <v>3749</v>
+      </c>
+      <c r="TQ2">
+        <v>3750</v>
+      </c>
+      <c r="TR2">
+        <v>3751</v>
+      </c>
+      <c r="TS2">
+        <v>3752</v>
+      </c>
+      <c r="TT2">
+        <v>3753</v>
+      </c>
+      <c r="TU2">
+        <v>3754</v>
+      </c>
+      <c r="TV2">
+        <v>3755</v>
+      </c>
+      <c r="TW2">
+        <v>3756</v>
+      </c>
+      <c r="TX2">
+        <v>3757</v>
+      </c>
+      <c r="TY2">
+        <v>3758</v>
+      </c>
+      <c r="TZ2">
+        <v>3759</v>
+      </c>
+      <c r="UA2">
+        <v>3760</v>
+      </c>
+      <c r="UB2">
+        <v>3761</v>
+      </c>
+      <c r="UC2">
+        <v>3762</v>
+      </c>
+      <c r="UD2">
+        <v>3763</v>
+      </c>
+      <c r="UE2">
+        <v>3764</v>
+      </c>
+      <c r="UF2">
+        <v>3765</v>
+      </c>
+      <c r="UG2">
+        <v>3766</v>
+      </c>
+      <c r="UH2">
+        <v>3767</v>
+      </c>
+      <c r="UI2">
+        <v>3768</v>
+      </c>
+      <c r="UJ2">
+        <v>3769</v>
+      </c>
+      <c r="UK2">
+        <v>3770</v>
+      </c>
+      <c r="UL2">
+        <v>3771</v>
+      </c>
+      <c r="UM2">
+        <v>3772</v>
+      </c>
+      <c r="UN2">
+        <v>3773</v>
+      </c>
+      <c r="UO2">
+        <v>3774</v>
+      </c>
+      <c r="UP2">
+        <v>3775</v>
+      </c>
+      <c r="UQ2">
+        <v>3776</v>
+      </c>
+      <c r="UR2">
+        <v>3777</v>
+      </c>
+      <c r="US2">
+        <v>3778</v>
+      </c>
+      <c r="UT2">
+        <v>3779</v>
+      </c>
+      <c r="UU2">
+        <v>3780</v>
+      </c>
+      <c r="UV2">
+        <v>3781</v>
+      </c>
+      <c r="UW2">
+        <v>3782</v>
+      </c>
+      <c r="UX2">
+        <v>3783</v>
+      </c>
+      <c r="UY2">
+        <v>3784</v>
+      </c>
+      <c r="UZ2">
+        <v>3785</v>
+      </c>
+      <c r="VA2">
+        <v>3786</v>
+      </c>
+      <c r="VB2">
+        <v>3787</v>
+      </c>
+      <c r="VC2">
+        <v>3788</v>
+      </c>
+      <c r="VD2">
+        <v>3789</v>
+      </c>
+      <c r="VE2">
+        <v>3790</v>
+      </c>
+      <c r="VF2">
+        <v>3791</v>
+      </c>
+      <c r="VG2">
+        <v>3792</v>
+      </c>
+      <c r="VH2">
+        <v>3793</v>
+      </c>
+      <c r="VI2">
+        <v>3794</v>
+      </c>
+      <c r="VJ2">
+        <v>3795</v>
+      </c>
+      <c r="VK2">
+        <v>3796</v>
+      </c>
+      <c r="VL2">
+        <v>3797</v>
+      </c>
+      <c r="VM2">
+        <v>3798</v>
+      </c>
+      <c r="VN2">
+        <v>3799</v>
+      </c>
+      <c r="VO2">
+        <v>3800</v>
+      </c>
+      <c r="VP2">
+        <v>3801</v>
+      </c>
+      <c r="VQ2">
+        <v>3802</v>
+      </c>
+      <c r="VR2">
+        <v>3803</v>
+      </c>
+      <c r="VS2">
+        <v>3804</v>
+      </c>
+      <c r="VT2">
+        <v>3805</v>
+      </c>
+      <c r="VU2">
+        <v>3806</v>
+      </c>
+      <c r="VV2">
+        <v>3807</v>
+      </c>
+      <c r="VW2">
+        <v>3808</v>
+      </c>
+      <c r="VX2">
+        <v>3809</v>
+      </c>
+      <c r="VY2">
+        <v>3810</v>
+      </c>
+      <c r="VZ2">
+        <v>3811</v>
+      </c>
+      <c r="WA2">
+        <v>3812</v>
+      </c>
+      <c r="WB2">
+        <v>3813</v>
+      </c>
+      <c r="WC2">
+        <v>3814</v>
+      </c>
+      <c r="WD2">
+        <v>3815</v>
+      </c>
+      <c r="WE2">
+        <v>3816</v>
+      </c>
+      <c r="WF2">
+        <v>3817</v>
+      </c>
+      <c r="WG2">
+        <v>3818</v>
+      </c>
+      <c r="WH2">
+        <v>3819</v>
+      </c>
+      <c r="WI2">
+        <v>3820</v>
+      </c>
+      <c r="WJ2">
+        <v>3821</v>
+      </c>
+      <c r="WK2">
+        <v>3822</v>
+      </c>
+      <c r="WL2">
+        <v>3823</v>
+      </c>
+      <c r="WM2">
+        <v>3824</v>
+      </c>
+      <c r="WN2">
+        <v>3825</v>
+      </c>
+      <c r="WO2">
+        <v>3826</v>
+      </c>
+      <c r="WP2">
+        <v>3827</v>
+      </c>
+      <c r="WQ2">
+        <v>3828</v>
+      </c>
+      <c r="WR2">
+        <v>3829</v>
+      </c>
+      <c r="WS2">
+        <v>3830</v>
+      </c>
+      <c r="WT2">
+        <v>3831</v>
+      </c>
+      <c r="WU2">
+        <v>3832</v>
+      </c>
+      <c r="WV2">
+        <v>3833</v>
+      </c>
+      <c r="WW2">
+        <v>3834</v>
+      </c>
+      <c r="WX2">
+        <v>3835</v>
+      </c>
+      <c r="WY2">
+        <v>3836</v>
+      </c>
+      <c r="WZ2">
+        <v>3837</v>
+      </c>
+      <c r="XA2">
+        <v>3838</v>
+      </c>
+      <c r="XB2">
+        <v>3839</v>
+      </c>
+      <c r="XC2">
+        <v>3840</v>
+      </c>
+      <c r="XD2">
+        <v>3841</v>
+      </c>
+      <c r="XE2">
+        <v>3842</v>
+      </c>
+      <c r="XF2">
+        <v>3843</v>
+      </c>
+      <c r="XG2">
+        <v>3844</v>
+      </c>
+      <c r="XH2">
+        <v>3845</v>
+      </c>
+      <c r="XI2">
+        <v>3846</v>
+      </c>
+      <c r="XJ2">
+        <v>3847</v>
+      </c>
+      <c r="XK2">
+        <v>3848</v>
+      </c>
+      <c r="XL2">
+        <v>3849</v>
+      </c>
+      <c r="XM2">
+        <v>3850</v>
+      </c>
+      <c r="XN2">
+        <v>3851</v>
+      </c>
+      <c r="XO2">
+        <v>3852</v>
+      </c>
+      <c r="XP2">
+        <v>3853</v>
+      </c>
+      <c r="XQ2">
+        <v>3854</v>
+      </c>
+      <c r="XR2">
+        <v>3855</v>
+      </c>
+      <c r="XS2">
+        <v>3856</v>
+      </c>
+      <c r="XT2">
+        <v>3857</v>
+      </c>
+      <c r="XU2">
+        <v>3858</v>
+      </c>
+      <c r="XV2">
+        <v>3859</v>
+      </c>
+      <c r="XW2">
+        <v>3860</v>
+      </c>
+      <c r="XX2">
+        <v>3861</v>
+      </c>
+      <c r="XY2">
+        <v>3862</v>
+      </c>
+      <c r="XZ2">
+        <v>3863</v>
+      </c>
+      <c r="YA2">
+        <v>3864</v>
+      </c>
+      <c r="YB2">
+        <v>3865</v>
+      </c>
+      <c r="YC2">
+        <v>3866</v>
+      </c>
+      <c r="YD2">
+        <v>3867</v>
+      </c>
+      <c r="YE2">
+        <v>3868</v>
+      </c>
+      <c r="YF2">
+        <v>3869</v>
+      </c>
+      <c r="YG2">
+        <v>3870</v>
+      </c>
+      <c r="YH2">
+        <v>3871</v>
+      </c>
+      <c r="YI2">
+        <v>3872</v>
+      </c>
+      <c r="YJ2">
+        <v>3873</v>
+      </c>
+      <c r="YK2">
+        <v>3874</v>
+      </c>
+      <c r="YL2">
+        <v>3875</v>
+      </c>
+      <c r="YM2">
+        <v>3876</v>
+      </c>
+      <c r="YN2">
+        <v>3877</v>
+      </c>
+      <c r="YO2">
+        <v>3878</v>
+      </c>
+      <c r="YP2">
+        <v>3879</v>
+      </c>
+      <c r="YQ2">
+        <v>3880</v>
+      </c>
+      <c r="YR2">
+        <v>3881</v>
+      </c>
+      <c r="YS2">
+        <v>3882</v>
+      </c>
+      <c r="YT2">
+        <v>3883</v>
+      </c>
+      <c r="YU2">
+        <v>3884</v>
+      </c>
+      <c r="YV2">
+        <v>3885</v>
+      </c>
+      <c r="YW2">
+        <v>3886</v>
+      </c>
+      <c r="YX2">
+        <v>3887</v>
+      </c>
+      <c r="YY2">
+        <v>3888</v>
+      </c>
+      <c r="YZ2">
+        <v>3889</v>
+      </c>
+      <c r="ZA2">
+        <v>3890</v>
+      </c>
+      <c r="ZB2">
+        <v>3891</v>
+      </c>
+      <c r="ZC2">
+        <v>3892</v>
+      </c>
+      <c r="ZD2">
+        <v>3893</v>
+      </c>
+      <c r="ZE2">
+        <v>3894</v>
+      </c>
+      <c r="ZF2">
+        <v>3895</v>
+      </c>
+      <c r="ZG2">
+        <v>3896</v>
+      </c>
+      <c r="ZH2">
+        <v>3897</v>
+      </c>
+      <c r="ZI2">
+        <v>3898</v>
+      </c>
+      <c r="ZJ2">
+        <v>3899</v>
+      </c>
+      <c r="ZK2">
+        <v>3900</v>
+      </c>
+      <c r="ZL2">
+        <v>3901</v>
+      </c>
+      <c r="ZM2">
+        <v>3902</v>
+      </c>
+      <c r="ZN2">
+        <v>3903</v>
+      </c>
+      <c r="ZO2">
+        <v>3904</v>
+      </c>
+      <c r="ZP2">
+        <v>3905</v>
+      </c>
+      <c r="ZQ2">
+        <v>3906</v>
+      </c>
+      <c r="ZR2">
+        <v>3907</v>
+      </c>
+      <c r="ZS2">
+        <v>3908</v>
+      </c>
+      <c r="ZT2">
+        <v>3909</v>
+      </c>
+      <c r="ZU2">
+        <v>3910</v>
+      </c>
+      <c r="ZV2">
+        <v>3911</v>
+      </c>
+      <c r="ZW2">
+        <v>3912</v>
+      </c>
+      <c r="ZX2">
+        <v>3913</v>
+      </c>
+      <c r="ZY2">
+        <v>3914</v>
+      </c>
+      <c r="ZZ2">
+        <v>3915</v>
+      </c>
+      <c r="AAA2">
+        <v>3916</v>
+      </c>
+      <c r="AAB2">
+        <v>3917</v>
+      </c>
+      <c r="AAC2">
+        <v>3918</v>
+      </c>
+      <c r="AAD2">
+        <v>3919</v>
+      </c>
+      <c r="AAE2">
+        <v>3920</v>
+      </c>
+      <c r="AAF2">
+        <v>3921</v>
+      </c>
+      <c r="AAG2">
+        <v>3922</v>
+      </c>
+      <c r="AAH2">
+        <v>3923</v>
+      </c>
+      <c r="AAI2">
+        <v>3924</v>
+      </c>
+      <c r="AAJ2">
+        <v>3925</v>
+      </c>
+      <c r="AAK2">
+        <v>3926</v>
+      </c>
+      <c r="AAL2">
+        <v>3927</v>
+      </c>
+      <c r="AAM2">
+        <v>3928</v>
+      </c>
+      <c r="AAN2">
+        <v>3929</v>
+      </c>
+      <c r="AAO2">
+        <v>3930</v>
+      </c>
+      <c r="AAP2">
+        <v>3931</v>
+      </c>
+      <c r="AAQ2">
+        <v>3932</v>
+      </c>
+      <c r="AAR2">
+        <v>3933</v>
+      </c>
+      <c r="AAS2">
+        <v>3934</v>
+      </c>
+      <c r="AAT2">
+        <v>3935</v>
+      </c>
+      <c r="AAU2">
+        <v>3936</v>
+      </c>
+      <c r="AAV2">
+        <v>3937</v>
+      </c>
+      <c r="AAW2">
+        <v>3938</v>
+      </c>
+      <c r="AAX2">
+        <v>3939</v>
+      </c>
+      <c r="AAY2">
+        <v>3940</v>
+      </c>
+      <c r="AAZ2">
+        <v>3941</v>
+      </c>
+      <c r="ABA2">
+        <v>3942</v>
+      </c>
+      <c r="ABB2">
+        <v>3943</v>
+      </c>
+      <c r="ABC2">
+        <v>3944</v>
+      </c>
+      <c r="ABD2">
+        <v>3945</v>
+      </c>
+      <c r="ABE2">
+        <v>3946</v>
+      </c>
+      <c r="ABF2">
+        <v>3947</v>
+      </c>
+      <c r="ABG2">
+        <v>3948</v>
+      </c>
+      <c r="ABH2">
+        <v>3949</v>
+      </c>
+      <c r="ABI2">
+        <v>3950</v>
+      </c>
+      <c r="ABJ2">
+        <v>3951</v>
+      </c>
+      <c r="ABK2">
+        <v>3952</v>
+      </c>
+      <c r="ABL2">
+        <v>3953</v>
+      </c>
+      <c r="ABM2">
+        <v>3954</v>
+      </c>
+      <c r="ABN2">
+        <v>3955</v>
+      </c>
+      <c r="ABO2">
+        <v>3956</v>
+      </c>
+      <c r="ABP2">
+        <v>3957</v>
+      </c>
+      <c r="ABQ2">
+        <v>3958</v>
+      </c>
+      <c r="ABR2">
+        <v>3959</v>
+      </c>
+      <c r="ABS2">
+        <v>3960</v>
+      </c>
+      <c r="ABT2">
+        <v>3961</v>
+      </c>
+      <c r="ABU2">
+        <v>3962</v>
+      </c>
+      <c r="ABV2">
+        <v>3963</v>
+      </c>
+      <c r="ABW2">
+        <v>3964</v>
+      </c>
+      <c r="ABX2">
+        <v>3965</v>
+      </c>
+      <c r="ABY2">
+        <v>3966</v>
+      </c>
+      <c r="ABZ2">
+        <v>3967</v>
+      </c>
+      <c r="ACA2">
+        <v>3968</v>
+      </c>
+      <c r="ACB2">
+        <v>3969</v>
+      </c>
+      <c r="ACC2">
+        <v>3970</v>
+      </c>
+      <c r="ACD2">
+        <v>3971</v>
+      </c>
+      <c r="ACE2">
+        <v>3972</v>
+      </c>
+      <c r="ACF2">
+        <v>3973</v>
+      </c>
+      <c r="ACG2">
+        <v>3974</v>
+      </c>
+      <c r="ACH2">
+        <v>3975</v>
+      </c>
+      <c r="ACI2">
+        <v>3976</v>
+      </c>
+      <c r="ACJ2">
+        <v>3977</v>
+      </c>
+      <c r="ACK2">
+        <v>3978</v>
+      </c>
+      <c r="ACL2">
+        <v>3979</v>
+      </c>
+      <c r="ACM2">
+        <v>3980</v>
+      </c>
+      <c r="ACN2">
+        <v>3981</v>
+      </c>
+      <c r="ACO2">
+        <v>3982</v>
+      </c>
+      <c r="ACP2">
+        <v>3983</v>
+      </c>
+      <c r="ACQ2">
+        <v>3984</v>
+      </c>
+      <c r="ACR2">
+        <v>3985</v>
+      </c>
+      <c r="ACS2">
+        <v>3986</v>
+      </c>
+      <c r="ACT2">
+        <v>3987</v>
+      </c>
+      <c r="ACU2">
+        <v>3988</v>
+      </c>
+      <c r="ACV2">
+        <v>3989</v>
+      </c>
+      <c r="ACW2">
+        <v>3990</v>
+      </c>
+      <c r="ACX2">
+        <v>3991</v>
+      </c>
+      <c r="ACY2">
+        <v>3992</v>
+      </c>
+      <c r="ACZ2">
+        <v>3993</v>
+      </c>
+      <c r="ADA2">
+        <v>3994</v>
+      </c>
+      <c r="ADB2">
+        <v>3995</v>
+      </c>
+      <c r="ADC2">
+        <v>3996</v>
+      </c>
+      <c r="ADD2">
+        <v>3997</v>
+      </c>
+      <c r="ADE2">
+        <v>3998</v>
+      </c>
+      <c r="ADF2">
+        <v>3999</v>
+      </c>
+      <c r="ADG2">
+        <v>4000</v>
+      </c>
+      <c r="ADH2">
+        <v>4001</v>
+      </c>
+      <c r="ADI2">
+        <v>4002</v>
+      </c>
+      <c r="ADJ2">
+        <v>4003</v>
+      </c>
+      <c r="ADK2">
+        <v>4004</v>
+      </c>
+      <c r="ADL2">
+        <v>4005</v>
+      </c>
+      <c r="ADM2">
+        <v>4006</v>
+      </c>
+      <c r="ADN2">
+        <v>4007</v>
+      </c>
+      <c r="ADO2">
+        <v>4008</v>
+      </c>
+      <c r="ADP2">
+        <v>4009</v>
+      </c>
+      <c r="ADQ2">
+        <v>4010</v>
+      </c>
+      <c r="ADR2">
+        <v>4011</v>
+      </c>
+      <c r="ADS2">
+        <v>4012</v>
+      </c>
+      <c r="ADT2">
+        <v>4013</v>
+      </c>
+      <c r="ADU2">
+        <v>4014</v>
+      </c>
+      <c r="ADV2">
+        <v>4015</v>
+      </c>
+      <c r="ADW2">
+        <v>4016</v>
+      </c>
+      <c r="ADX2">
+        <v>4017</v>
+      </c>
+      <c r="ADY2">
+        <v>4018</v>
+      </c>
+      <c r="ADZ2">
+        <v>4019</v>
+      </c>
+      <c r="AEA2">
+        <v>4020</v>
+      </c>
+      <c r="AEB2">
+        <v>4021</v>
+      </c>
+      <c r="AEC2">
+        <v>4022</v>
+      </c>
+      <c r="AED2">
+        <v>4023</v>
+      </c>
+      <c r="AEE2">
+        <v>4024</v>
+      </c>
+      <c r="AEF2">
+        <v>4025</v>
+      </c>
+      <c r="AEG2">
+        <v>4026</v>
+      </c>
+      <c r="AEH2">
+        <v>4027</v>
+      </c>
+      <c r="AEI2">
+        <v>4028</v>
+      </c>
+      <c r="AEJ2">
+        <v>4029</v>
+      </c>
+      <c r="AEK2">
+        <v>4030</v>
+      </c>
+      <c r="AEL2">
+        <v>4031</v>
+      </c>
+      <c r="AEM2">
+        <v>4032</v>
+      </c>
+      <c r="AEN2">
+        <v>4033</v>
+      </c>
+      <c r="AEO2">
+        <v>4034</v>
+      </c>
+      <c r="AEP2">
+        <v>4035</v>
+      </c>
+      <c r="AEQ2">
+        <v>4036</v>
+      </c>
+      <c r="AER2">
+        <v>4037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831A6850-8724-4B70-A817-487B45869133}">
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C122"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1">
@@ -2352,10 +7314,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4266</v>
+        <v>3235</v>
       </c>
       <c r="C2">
-        <v>3215</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2363,10 +7325,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4262</v>
+        <v>3246</v>
       </c>
       <c r="C3">
-        <v>3274</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2374,10 +7336,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4250</v>
+        <v>3271</v>
       </c>
       <c r="C4">
-        <v>3278</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,10 +7347,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4248</v>
+        <v>3340</v>
       </c>
       <c r="C5">
-        <v>3300</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2396,10 +7358,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4246</v>
+        <v>3350</v>
       </c>
       <c r="C6">
-        <v>3319</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,10 +7369,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4236</v>
+        <v>3364</v>
       </c>
       <c r="C7">
-        <v>3338</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,10 +7380,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4230</v>
+        <v>3415</v>
       </c>
       <c r="C8">
-        <v>3367</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,10 +7391,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4220</v>
+        <v>3431</v>
       </c>
       <c r="C9">
-        <v>3368</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,10 +7402,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4218</v>
+        <v>3453</v>
       </c>
       <c r="C10">
-        <v>3400</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2451,10 +7413,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4215</v>
+        <v>3466</v>
       </c>
       <c r="C11">
-        <v>3423</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,10 +7424,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4205</v>
+        <v>3469</v>
       </c>
       <c r="C12">
-        <v>3437</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,10 +7435,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4199</v>
+        <v>3481</v>
       </c>
       <c r="C13">
-        <v>3443</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,10 +7446,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4197</v>
+        <v>3485</v>
       </c>
       <c r="C14">
-        <v>3462</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2495,10 +7457,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4185</v>
+        <v>3490</v>
       </c>
       <c r="C15">
-        <v>3466</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,10 +7468,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4182</v>
+        <v>3497</v>
       </c>
       <c r="C16">
-        <v>3478</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,10 +7479,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4175</v>
+        <v>3511</v>
       </c>
       <c r="C17">
-        <v>3491</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,10 +7490,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4174</v>
+        <v>3512</v>
       </c>
       <c r="C18">
-        <v>3499</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2539,10 +7501,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4168</v>
+        <v>3540</v>
       </c>
       <c r="C19">
-        <v>3505</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2550,10 +7512,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4164</v>
+        <v>3556</v>
       </c>
       <c r="C20">
-        <v>3521</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2561,10 +7523,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4152</v>
+        <v>3568</v>
       </c>
       <c r="C21">
-        <v>3528</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2572,10 +7534,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4151</v>
+        <v>3582</v>
       </c>
       <c r="C22">
-        <v>3534</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2583,10 +7545,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4142</v>
+        <v>3595</v>
       </c>
       <c r="C23">
-        <v>3537</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2594,10 +7556,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4139</v>
+        <v>3616</v>
       </c>
       <c r="C24">
-        <v>3546</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2605,10 +7567,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4136</v>
+        <v>3632</v>
       </c>
       <c r="C25">
-        <v>3554</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2616,10 +7578,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4130</v>
+        <v>3635</v>
       </c>
       <c r="C26">
-        <v>3555</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2627,10 +7589,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4128</v>
+        <v>3645</v>
       </c>
       <c r="C27">
-        <v>3560</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,10 +7600,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4125</v>
+        <v>3653</v>
       </c>
       <c r="C28">
-        <v>3566</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2649,10 +7611,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4122</v>
+        <v>3660</v>
       </c>
       <c r="C29">
-        <v>3569</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2660,10 +7622,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>4121</v>
+        <v>3666</v>
       </c>
       <c r="C30">
-        <v>3595</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2671,10 +7633,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>4102</v>
+        <v>3672</v>
       </c>
       <c r="C31">
-        <v>3602</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,10 +7644,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4100</v>
+        <v>3688</v>
       </c>
       <c r="C32">
-        <v>3603</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,10 +7655,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4098</v>
+        <v>3690</v>
       </c>
       <c r="C33">
-        <v>3605</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2704,10 +7666,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4094</v>
+        <v>3704</v>
       </c>
       <c r="C34">
-        <v>3612</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,10 +7677,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4089</v>
+        <v>3732</v>
       </c>
       <c r="C35">
-        <v>3635</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,10 +7688,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4082</v>
+        <v>3749</v>
       </c>
       <c r="C36">
-        <v>3640</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,10 +7699,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4074</v>
+        <v>3751</v>
       </c>
       <c r="C37">
-        <v>3646</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,10 +7710,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4071</v>
+        <v>3753</v>
       </c>
       <c r="C38">
-        <v>3649</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,10 +7721,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>4064</v>
+        <v>3762</v>
       </c>
       <c r="C39">
-        <v>3660</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,10 +7732,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>4056</v>
+        <v>3763</v>
       </c>
       <c r="C40">
-        <v>3666</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,10 +7743,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4050</v>
+        <v>3778</v>
       </c>
       <c r="C41">
-        <v>3680</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,10 +7754,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4041</v>
+        <v>3779</v>
       </c>
       <c r="C42">
-        <v>3697</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2803,10 +7765,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>4019</v>
+        <v>3787</v>
       </c>
       <c r="C43">
-        <v>3700</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,10 +7776,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4014</v>
+        <v>3791</v>
       </c>
       <c r="C44">
-        <v>3705</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,10 +7787,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>4010</v>
+        <v>3797</v>
       </c>
       <c r="C45">
-        <v>3716</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,10 +7798,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4009</v>
+        <v>3806</v>
       </c>
       <c r="C46">
-        <v>3717</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,10 +7809,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3997</v>
+        <v>3822</v>
       </c>
       <c r="C47">
-        <v>3718</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,10 +7820,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>3996</v>
+        <v>3825</v>
       </c>
       <c r="C48">
-        <v>3722</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2869,10 +7831,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>3994</v>
+        <v>3831</v>
       </c>
       <c r="C49">
-        <v>3724</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2880,10 +7842,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>3990</v>
+        <v>3832</v>
       </c>
       <c r="C50">
-        <v>3731</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2891,10 +7853,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3977</v>
+        <v>3833</v>
       </c>
       <c r="C51">
-        <v>3738</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2902,10 +7864,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>3969.9999999987231</v>
+        <v>3834</v>
       </c>
       <c r="C52">
-        <v>3739</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,10 +7875,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>3969</v>
+        <v>3838</v>
       </c>
       <c r="C53">
-        <v>3747</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,10 +7886,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>3964</v>
+        <v>3839</v>
       </c>
       <c r="C54">
-        <v>3748</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2935,10 +7897,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>3963</v>
+        <v>3855</v>
       </c>
       <c r="C55">
-        <v>3761</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,10 +7908,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>3952</v>
+        <v>3860</v>
       </c>
       <c r="C56">
-        <v>3769</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2957,10 +7919,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3937.9999999993124</v>
+        <v>3870</v>
       </c>
       <c r="C57">
-        <v>3773</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,10 +7930,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>3929</v>
+        <v>3879</v>
       </c>
       <c r="C58">
-        <v>3778</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,10 +7941,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>3927</v>
+        <v>3884</v>
       </c>
       <c r="C59">
-        <v>3783</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,10 +7952,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3924</v>
+        <v>3888</v>
       </c>
       <c r="C60">
-        <v>3786</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3001,10 +7963,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3918</v>
+        <v>3907</v>
       </c>
       <c r="C61">
-        <v>3792</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,10 +7985,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3907</v>
+        <v>3918</v>
       </c>
       <c r="C63">
-        <v>3806</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3034,10 +7996,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3888</v>
+        <v>3924</v>
       </c>
       <c r="C64">
-        <v>3812</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,10 +8007,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3884</v>
+        <v>3927</v>
       </c>
       <c r="C65">
-        <v>3813</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,10 +8018,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3879</v>
+        <v>3929</v>
       </c>
       <c r="C66">
-        <v>3817</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3067,10 +8029,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3870</v>
+        <v>3938</v>
       </c>
       <c r="C67">
-        <v>3826</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3078,10 +8040,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3860</v>
+        <v>3952</v>
       </c>
       <c r="C68">
-        <v>3830</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3089,10 +8051,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3855</v>
+        <v>3963</v>
       </c>
       <c r="C69">
-        <v>3832</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,10 +8062,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>3839</v>
+        <v>3964</v>
       </c>
       <c r="C70">
-        <v>3836</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,10 +8073,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3837.9999999998026</v>
+        <v>3969</v>
       </c>
       <c r="C71">
-        <v>3838.9999999997026</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3122,10 +8084,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>3834</v>
+        <v>3970</v>
       </c>
       <c r="C72">
-        <v>3842</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3133,10 +8095,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>3833</v>
+        <v>3977</v>
       </c>
       <c r="C73">
-        <v>3843</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3144,10 +8106,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3832</v>
+        <v>3990</v>
       </c>
       <c r="C74">
-        <v>3845</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,10 +8117,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>3831</v>
+        <v>3994</v>
       </c>
       <c r="C75">
-        <v>3848</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3166,10 +8128,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3825</v>
+        <v>3996</v>
       </c>
       <c r="C76">
-        <v>3851</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3177,10 +8139,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3822</v>
+        <v>3997</v>
       </c>
       <c r="C77">
-        <v>3857</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3188,10 +8150,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>3806</v>
+        <v>4009</v>
       </c>
       <c r="C78">
-        <v>3860</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3199,10 +8161,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3797</v>
+        <v>4010</v>
       </c>
       <c r="C79">
-        <v>3862</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,10 +8172,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3791</v>
+        <v>4014</v>
       </c>
       <c r="C80">
-        <v>3863</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3221,10 +8183,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3787</v>
+        <v>4019</v>
       </c>
       <c r="C81">
-        <v>3870</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,10 +8194,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>3779</v>
+        <v>4041</v>
       </c>
       <c r="C82">
-        <v>3871</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,10 +8205,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3778</v>
+        <v>4050</v>
       </c>
       <c r="C83">
-        <v>3875</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3254,10 +8216,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>3763</v>
+        <v>4056</v>
       </c>
       <c r="C84">
-        <v>3878</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3265,10 +8227,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>3762</v>
+        <v>4064</v>
       </c>
       <c r="C85">
-        <v>3881</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3276,10 +8238,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>3753</v>
+        <v>4071</v>
       </c>
       <c r="C86">
-        <v>3885</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3287,10 +8249,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>3751</v>
+        <v>4074</v>
       </c>
       <c r="C87">
-        <v>3891</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3298,10 +8260,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>3749</v>
+        <v>4082</v>
       </c>
       <c r="C88">
-        <v>3893</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3309,10 +8271,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>3732</v>
+        <v>4089</v>
       </c>
       <c r="C89">
-        <v>3908</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3320,10 +8282,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>3704.0000000554592</v>
+        <v>4094</v>
       </c>
       <c r="C90">
-        <v>3912.0000000689033</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3331,10 +8293,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>3690</v>
+        <v>4098</v>
       </c>
       <c r="C91">
-        <v>3914</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3342,10 +8304,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>3688</v>
+        <v>4100</v>
       </c>
       <c r="C92">
-        <v>3919</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3353,10 +8315,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>3672</v>
+        <v>4102</v>
       </c>
       <c r="C93">
-        <v>3925</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3364,10 +8326,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>3666</v>
+        <v>4121</v>
       </c>
       <c r="C94">
-        <v>3926</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3375,10 +8337,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>3660</v>
+        <v>4122</v>
       </c>
       <c r="C95">
-        <v>3935</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3386,10 +8348,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>3653</v>
+        <v>4125</v>
       </c>
       <c r="C96">
-        <v>3936</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3397,10 +8359,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>3645</v>
+        <v>4128</v>
       </c>
       <c r="C97">
-        <v>3937</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3408,10 +8370,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>3635</v>
+        <v>4130</v>
       </c>
       <c r="C98">
-        <v>3938</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3419,10 +8381,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>3632</v>
+        <v>4136</v>
       </c>
       <c r="C99">
-        <v>3949</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3430,10 +8392,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3616</v>
+        <v>4139</v>
       </c>
       <c r="C100">
-        <v>3956</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3441,10 +8403,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>3595</v>
+        <v>4142</v>
       </c>
       <c r="C101">
-        <v>3966</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3452,10 +8414,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>3582</v>
+        <v>4151</v>
       </c>
       <c r="C102">
-        <v>3970</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3463,10 +8425,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>3568</v>
+        <v>4152</v>
       </c>
       <c r="C103">
-        <v>3971</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3474,10 +8436,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>3556</v>
+        <v>4164</v>
       </c>
       <c r="C104">
-        <v>3975</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3485,10 +8447,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>3540</v>
+        <v>4168</v>
       </c>
       <c r="C105">
-        <v>3982</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3496,10 +8458,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>3512</v>
+        <v>4174</v>
       </c>
       <c r="C106">
-        <v>3986</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3507,10 +8469,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>3511</v>
+        <v>4175</v>
       </c>
       <c r="C107">
-        <v>3987</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3518,10 +8480,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>3497</v>
+        <v>4182</v>
       </c>
       <c r="C108">
-        <v>3989</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3529,10 +8491,10 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>3490</v>
+        <v>4185</v>
       </c>
       <c r="C109">
-        <v>3990</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3540,10 +8502,10 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>3485</v>
+        <v>4197</v>
       </c>
       <c r="C110">
-        <v>3993</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3551,10 +8513,10 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>3481</v>
+        <v>4199</v>
       </c>
       <c r="C111">
-        <v>3998</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3562,10 +8524,10 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>3469</v>
+        <v>4205</v>
       </c>
       <c r="C112">
-        <v>4000</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3573,10 +8535,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>3466</v>
+        <v>4215</v>
       </c>
       <c r="C113">
-        <v>4001</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3584,10 +8546,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>3453</v>
+        <v>4218</v>
       </c>
       <c r="C114">
-        <v>4003</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3595,10 +8557,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>3431</v>
+        <v>4220</v>
       </c>
       <c r="C115">
-        <v>4009</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3606,10 +8568,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>3415</v>
+        <v>4230</v>
       </c>
       <c r="C116">
-        <v>4017</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3617,10 +8579,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>3364</v>
+        <v>4236</v>
       </c>
       <c r="C117">
-        <v>4021</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3628,10 +8590,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>3350</v>
+        <v>4246</v>
       </c>
       <c r="C118">
-        <v>4024</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3639,10 +8601,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>3340</v>
+        <v>4248</v>
       </c>
       <c r="C119">
-        <v>4028</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3650,10 +8612,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>3271</v>
+        <v>4250</v>
       </c>
       <c r="C120">
-        <v>4029</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3661,10 +8623,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3246</v>
+        <v>4262</v>
       </c>
       <c r="C121">
-        <v>4031</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3672,16 +8634,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>3235</v>
+        <v>4266</v>
       </c>
       <c r="C122">
-        <v>4037</v>
+        <v>3215</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F122">
-    <sortCondition ref="E2:E122"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
